--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_21_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_21_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1783134.640166223</v>
+        <v>1782467.953063848</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>394074.1703819045</v>
+        <v>394074.1703819047</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058533</v>
       </c>
     </row>
     <row r="9">
@@ -1376,67 +1376,67 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>22.91776996152047</v>
+      </c>
+      <c r="T11" t="n">
+        <v>18.09022035898411</v>
+      </c>
+      <c r="U11" t="n">
+        <v>32.81273381676567</v>
+      </c>
+      <c r="V11" t="n">
         <v>83.81099470625607</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>22.91776996152073</v>
-      </c>
-      <c r="T11" t="n">
-        <v>18.09022035898438</v>
-      </c>
-      <c r="U11" t="n">
-        <v>45.82706754482453</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
-        <v>70.7966609781968</v>
+        <v>83.81099470625607</v>
       </c>
       <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>83.81099470625607</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.0400690602069</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>83.81099470625607</v>
       </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
       <c r="T12" t="n">
-        <v>10.62223208240267</v>
+        <v>10.62223208240241</v>
       </c>
       <c r="U12" t="n">
-        <v>32.90513957632349</v>
+        <v>83.81099470625607</v>
       </c>
       <c r="V12" t="n">
-        <v>36.32641845505597</v>
+        <v>52.57520999165578</v>
       </c>
       <c r="W12" t="n">
-        <v>62.38208111666532</v>
+        <v>62.38208111666506</v>
       </c>
       <c r="X12" t="n">
-        <v>12.99041197912433</v>
+        <v>12.99041197912408</v>
       </c>
       <c r="Y12" t="n">
-        <v>80.1763612800038</v>
+        <v>19.06178367367909</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.0206121010364</v>
+        <v>31.02061210103614</v>
       </c>
       <c r="T13" t="n">
-        <v>19.41578159860741</v>
+        <v>19.41578159860715</v>
       </c>
       <c r="U13" t="n">
         <v>83.81099470625607</v>
       </c>
       <c r="V13" t="n">
-        <v>40.78651272410363</v>
+        <v>40.78651272410337</v>
       </c>
       <c r="W13" t="n">
         <v>83.81099470625607</v>
       </c>
       <c r="X13" t="n">
-        <v>17.59695294789626</v>
+        <v>17.596952947896</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.81877035382215</v>
+        <v>12.81877035382189</v>
       </c>
     </row>
     <row r="14">
@@ -1622,58 +1622,58 @@
         <v>83.81099470625607</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>18.09022035898406</v>
+      </c>
+      <c r="U14" t="n">
+        <v>45.82706754482422</v>
+      </c>
+      <c r="V14" t="n">
         <v>83.81099470625607</v>
       </c>
-      <c r="I14" t="n">
-        <v>36.2191008672286</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>22.91776996152064</v>
-      </c>
-      <c r="T14" t="n">
-        <v>18.09022035898429</v>
-      </c>
-      <c r="U14" t="n">
-        <v>45.82706754482444</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>83.81099470625607</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>9.903436233462033</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.57756011096819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.86130901229092</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>83.81099470625607</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>16.24879153660031</v>
       </c>
       <c r="T15" t="n">
-        <v>25.91556973664352</v>
+        <v>10.62223208240236</v>
       </c>
       <c r="U15" t="n">
-        <v>32.90513957632341</v>
+        <v>83.81099470625607</v>
       </c>
       <c r="V15" t="n">
-        <v>36.32641845505589</v>
+        <v>36.32641845505566</v>
       </c>
       <c r="W15" t="n">
-        <v>62.38208111666523</v>
+        <v>62.38208111666501</v>
       </c>
       <c r="X15" t="n">
-        <v>12.99041197912425</v>
+        <v>12.99041197912402</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.06178367367926</v>
+        <v>19.06178367367903</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.02061210103631</v>
+        <v>31.02061210103609</v>
       </c>
       <c r="T16" t="n">
-        <v>19.41578159860732</v>
+        <v>19.41578159860709</v>
       </c>
       <c r="U16" t="n">
         <v>83.81099470625607</v>
       </c>
       <c r="V16" t="n">
-        <v>40.78651272410355</v>
+        <v>40.78651272410332</v>
       </c>
       <c r="W16" t="n">
         <v>83.81099470625607</v>
       </c>
       <c r="X16" t="n">
-        <v>17.59695294789617</v>
+        <v>17.59695294789594</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.81877035382206</v>
+        <v>12.81877035382183</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.36952449916441</v>
+        <v>38.36952449916436</v>
       </c>
       <c r="C17" t="n">
-        <v>14.4877815025099</v>
+        <v>14.48778150250985</v>
       </c>
       <c r="D17" t="n">
-        <v>2.054443763558368</v>
+        <v>2.054443763558311</v>
       </c>
       <c r="E17" t="n">
-        <v>35.76119618296724</v>
+        <v>35.76119618296718</v>
       </c>
       <c r="F17" t="n">
-        <v>67.48153376134456</v>
+        <v>67.48153376134451</v>
       </c>
       <c r="G17" t="n">
-        <v>83.10831349049296</v>
+        <v>83.10831349049359</v>
       </c>
       <c r="H17" t="n">
-        <v>11.17931715308465</v>
+        <v>11.17931715308459</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.178747947097975</v>
+        <v>2.178747947097918</v>
       </c>
       <c r="X17" t="n">
-        <v>24.06499841603721</v>
+        <v>24.06499841603716</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.56785153978097</v>
+        <v>46.56785153978092</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>83.81099470625607</v>
+        <v>67.78065507706347</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>83.81099470625607</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.86130901229092</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.0400690602069</v>
+        <v>6.040069060206903</v>
       </c>
       <c r="R18" t="n">
         <v>83.81099470625607</v>
       </c>
       <c r="S18" t="n">
-        <v>15.91934606477252</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>83.81099470625607</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>83.81099470625607</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>14.4877815025099</v>
       </c>
       <c r="D20" t="n">
-        <v>2.054443763559244</v>
+        <v>2.054443763558368</v>
       </c>
       <c r="E20" t="n">
         <v>35.76119618296724</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>83.81099470625607</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>83.81099470625607</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>51.86130901229092</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,28 +2202,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.0400690602069</v>
+        <v>6.040069060206903</v>
       </c>
       <c r="R21" t="n">
         <v>83.81099470625607</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>67.78065507706347</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>83.81099470625607</v>
-      </c>
-      <c r="T21" t="n">
-        <v>15.91934606477255</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2394,65 +2394,65 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.82072413727036</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>6.040069060206903</v>
+      </c>
+      <c r="R24" t="n">
         <v>83.81099470625607</v>
       </c>
-      <c r="D24" t="n">
+      <c r="S24" t="n">
         <v>83.81099470625607</v>
       </c>
-      <c r="E24" t="n">
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>83.81099470625607</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>67.78065507706347</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2448337039203</v>
+        <v>161.2448337039204</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3630907072658</v>
+        <v>137.3630907072659</v>
       </c>
       <c r="D26" t="n">
         <v>124.9297529683143</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6365053877231</v>
+        <v>158.6365053877232</v>
       </c>
       <c r="F26" t="n">
         <v>190.3568429661005</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9836226952487</v>
+        <v>205.9836226952488</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0546263578405</v>
+        <v>134.0546263578406</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69919665366194</v>
+        <v>27.69919665366203</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39786574795398</v>
+        <v>14.39786574795406</v>
       </c>
       <c r="T26" t="n">
-        <v>9.570316145417628</v>
+        <v>9.570316145417713</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30716333125778</v>
+        <v>37.30716333125787</v>
       </c>
       <c r="V26" t="n">
-        <v>108.037376935239</v>
+        <v>108.0373769352391</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0540571518539</v>
+        <v>125.054057151854</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9403076207931</v>
+        <v>146.9403076207932</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4431607445369</v>
+        <v>169.443160744537</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>17.72024300921885</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T27" t="n">
-        <v>2.102327868835923</v>
+        <v>2.102327868836008</v>
       </c>
       <c r="U27" t="n">
-        <v>24.38523536275675</v>
+        <v>24.38523536275683</v>
       </c>
       <c r="V27" t="n">
-        <v>27.80651424148923</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>165.2963773130836</v>
+        <v>53.86217690309866</v>
       </c>
       <c r="X27" t="n">
-        <v>4.470507765557585</v>
+        <v>4.47050776555767</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.5418794601126</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50070788746965</v>
+        <v>22.50070788746974</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89587738504066</v>
+        <v>10.89587738504074</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81385317476277</v>
+        <v>75.81385317476285</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26660851053688</v>
+        <v>32.26660851053697</v>
       </c>
       <c r="W28" t="n">
-        <v>77.46830041542231</v>
+        <v>77.46830041542239</v>
       </c>
       <c r="X28" t="n">
-        <v>9.077048734329509</v>
+        <v>9.077048734329594</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.298866140255399</v>
+        <v>4.298866140255484</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>134.0546263578406</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69919665366203</v>
+        <v>27.699196653662</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39786574795406</v>
+        <v>14.39786574795403</v>
       </c>
       <c r="T29" t="n">
-        <v>9.570316145417706</v>
+        <v>9.570316145417685</v>
       </c>
       <c r="U29" t="n">
-        <v>37.30716333125787</v>
+        <v>37.30716333125784</v>
       </c>
       <c r="V29" t="n">
         <v>108.0373769352391</v>
       </c>
       <c r="W29" t="n">
-        <v>125.054057151854</v>
+        <v>125.0540571518539</v>
       </c>
       <c r="X29" t="n">
         <v>146.9403076207932</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.443160744537</v>
+        <v>169.4431607445369</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>74.87395572889081</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.102327868836008</v>
+        <v>2.10232786883598</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276420366697</v>
+        <v>24.3852353627568</v>
       </c>
       <c r="V30" t="n">
-        <v>60.24636790459249</v>
+        <v>27.80651424148928</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>4.47050776555767</v>
+        <v>4.470507765557642</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.54187946011268</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50070788746974</v>
+        <v>22.50070788746971</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89587738504074</v>
+        <v>10.89587738504071</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81385317476285</v>
+        <v>75.81385317476283</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26660851053697</v>
+        <v>32.26660851053694</v>
       </c>
       <c r="W31" t="n">
-        <v>77.46830041542239</v>
+        <v>77.46830041542236</v>
       </c>
       <c r="X31" t="n">
-        <v>9.077048734329594</v>
+        <v>9.077048734329566</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.298866140255484</v>
+        <v>4.298866140255456</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>124.9297529683143</v>
       </c>
       <c r="E32" t="n">
-        <v>158.6365053877232</v>
+        <v>158.6365053877231</v>
       </c>
       <c r="F32" t="n">
         <v>190.3568429661005</v>
@@ -3044,10 +3044,10 @@
         <v>205.9836226952487</v>
       </c>
       <c r="H32" t="n">
-        <v>134.0546263578406</v>
+        <v>134.0546263578405</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69919665366197</v>
+        <v>27.69919665366194</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.397865747954</v>
+        <v>14.39786574795397</v>
       </c>
       <c r="T32" t="n">
-        <v>9.57031614541765</v>
+        <v>9.570316145417621</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30716333125781</v>
+        <v>37.30716333125778</v>
       </c>
       <c r="V32" t="n">
         <v>108.037376935239</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>111.4342004099848</v>
+        <v>68.83388666868402</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.040069060206903</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.102327868835951</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38523536275677</v>
+        <v>237.2276420366697</v>
       </c>
       <c r="V33" t="n">
-        <v>27.80651424148925</v>
+        <v>27.80651424148923</v>
       </c>
       <c r="W33" t="n">
-        <v>53.8621769030986</v>
+        <v>53.86217690309857</v>
       </c>
       <c r="X33" t="n">
-        <v>4.470507765557613</v>
+        <v>4.470507765557585</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.54187946011263</v>
+        <v>10.5418794601126</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.50070788746968</v>
+        <v>22.50070788746965</v>
       </c>
       <c r="T34" t="n">
-        <v>10.89587738504069</v>
+        <v>10.89587738504066</v>
       </c>
       <c r="U34" t="n">
-        <v>75.8138531747628</v>
+        <v>75.81385317476277</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26660851053691</v>
+        <v>32.26660851053688</v>
       </c>
       <c r="W34" t="n">
-        <v>77.46830041542233</v>
+        <v>77.46830041542231</v>
       </c>
       <c r="X34" t="n">
-        <v>9.077048734329537</v>
+        <v>9.077048734329509</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.298866140255427</v>
+        <v>4.298866140255399</v>
       </c>
     </row>
     <row r="35">
@@ -3272,19 +3272,19 @@
         <v>101.7539432481092</v>
       </c>
       <c r="E35" t="n">
-        <v>135.460695667518</v>
+        <v>135.4606956675181</v>
       </c>
       <c r="F35" t="n">
-        <v>167.1810332458953</v>
+        <v>167.1810332458954</v>
       </c>
       <c r="G35" t="n">
         <v>182.8078129750436</v>
       </c>
       <c r="H35" t="n">
-        <v>110.8788166376354</v>
+        <v>110.8788166376355</v>
       </c>
       <c r="I35" t="n">
-        <v>4.523386933456834</v>
+        <v>4.523386933456862</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.13135361105267</v>
+        <v>14.1313536110527</v>
       </c>
       <c r="V35" t="n">
-        <v>84.86156721503389</v>
+        <v>84.86156721503392</v>
       </c>
       <c r="W35" t="n">
         <v>101.8782474316488</v>
@@ -3345,19 +3345,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>44.17582810304408</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>58.01076782393041</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1.209425642551635</v>
+        <v>237.2276420366697</v>
       </c>
       <c r="V36" t="n">
-        <v>4.630704521284116</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>30.68636718289346</v>
+        <v>30.68636718289349</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.63804345455765</v>
+        <v>52.63804345455768</v>
       </c>
       <c r="V37" t="n">
-        <v>9.090798790331775</v>
+        <v>9.090798790331803</v>
       </c>
       <c r="W37" t="n">
-        <v>54.2924906952172</v>
+        <v>54.29249069521723</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>138.0690239837151</v>
+        <v>138.0690239837152</v>
       </c>
       <c r="C38" t="n">
-        <v>114.1872809870606</v>
+        <v>114.1872809870607</v>
       </c>
       <c r="D38" t="n">
-        <v>101.7539432481091</v>
+        <v>101.7539432481092</v>
       </c>
       <c r="E38" t="n">
-        <v>135.460695667518</v>
+        <v>135.4606956675181</v>
       </c>
       <c r="F38" t="n">
-        <v>167.1810332458953</v>
+        <v>167.1810332458954</v>
       </c>
       <c r="G38" t="n">
-        <v>182.8078129750435</v>
+        <v>182.8078129750436</v>
       </c>
       <c r="H38" t="n">
-        <v>110.8788166376354</v>
+        <v>110.8788166376355</v>
       </c>
       <c r="I38" t="n">
-        <v>4.523386933456777</v>
+        <v>4.523386933456862</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>14.13135361105262</v>
+        <v>14.1313536110527</v>
       </c>
       <c r="V38" t="n">
-        <v>84.86156721503383</v>
+        <v>84.86156721503392</v>
       </c>
       <c r="W38" t="n">
-        <v>101.8782474316487</v>
+        <v>101.8782474316488</v>
       </c>
       <c r="X38" t="n">
-        <v>123.7644979005879</v>
+        <v>123.764497900588</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.2673510243317</v>
+        <v>146.2673510243318</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7381070793004</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3633,16 +3633,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9447345427489</v>
+        <v>13.46265648136221</v>
       </c>
       <c r="U39" t="n">
-        <v>1.209425642551578</v>
+        <v>237.2276420366697</v>
       </c>
       <c r="V39" t="n">
-        <v>174.9470170385857</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>30.68636718289341</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.6380434545576</v>
+        <v>52.63804345455768</v>
       </c>
       <c r="V40" t="n">
-        <v>9.090798790331718</v>
+        <v>9.090798790331803</v>
       </c>
       <c r="W40" t="n">
-        <v>54.29249069521714</v>
+        <v>54.29249069521723</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>138.0690239837152</v>
+        <v>138.0690239837151</v>
       </c>
       <c r="C41" t="n">
-        <v>114.1872809870607</v>
+        <v>114.1872809870606</v>
       </c>
       <c r="D41" t="n">
-        <v>101.7539432481092</v>
+        <v>101.7539432481091</v>
       </c>
       <c r="E41" t="n">
-        <v>135.460695667518</v>
+        <v>135.4606956675179</v>
       </c>
       <c r="F41" t="n">
         <v>167.1810332458953</v>
       </c>
       <c r="G41" t="n">
-        <v>182.8078129750436</v>
+        <v>182.8078129750435</v>
       </c>
       <c r="H41" t="n">
-        <v>110.8788166376354</v>
+        <v>110.8788166376353</v>
       </c>
       <c r="I41" t="n">
-        <v>4.523386933456834</v>
+        <v>4.523386933456749</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>14.13135361105267</v>
+        <v>14.13135361105259</v>
       </c>
       <c r="V41" t="n">
-        <v>84.86156721503389</v>
+        <v>84.8615672150338</v>
       </c>
       <c r="W41" t="n">
-        <v>101.8782474316488</v>
+        <v>101.8782474316487</v>
       </c>
       <c r="X41" t="n">
-        <v>123.764497900588</v>
+        <v>123.7644979005879</v>
       </c>
       <c r="Y41" t="n">
-        <v>146.2673510243318</v>
+        <v>146.2673510243317</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U42" t="n">
-        <v>1.209425642551635</v>
+        <v>80.29367531785135</v>
       </c>
       <c r="V42" t="n">
-        <v>4.630704521284116</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>30.68636718289346</v>
+        <v>30.68636718289338</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>26.59764878195704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.63804345455765</v>
+        <v>52.63804345455757</v>
       </c>
       <c r="V43" t="n">
-        <v>9.090798790331775</v>
+        <v>9.090798790331689</v>
       </c>
       <c r="W43" t="n">
-        <v>54.2924906952172</v>
+        <v>54.29249069521711</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>114.1872809870607</v>
       </c>
       <c r="D44" t="n">
-        <v>101.7539432481092</v>
+        <v>101.7539432481091</v>
       </c>
       <c r="E44" t="n">
         <v>135.460695667518</v>
@@ -3989,13 +3989,13 @@
         <v>167.1810332458953</v>
       </c>
       <c r="G44" t="n">
-        <v>182.8078129750441</v>
+        <v>182.8078129750436</v>
       </c>
       <c r="H44" t="n">
         <v>110.8788166376354</v>
       </c>
       <c r="I44" t="n">
-        <v>4.523386933456834</v>
+        <v>4.523386933456806</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>14.13135361105267</v>
+        <v>14.13135361105265</v>
       </c>
       <c r="V44" t="n">
-        <v>84.86156721503389</v>
+        <v>84.86156721503386</v>
       </c>
       <c r="W44" t="n">
-        <v>101.8782474316488</v>
+        <v>101.8782474316487</v>
       </c>
       <c r="X44" t="n">
         <v>123.764497900588</v>
       </c>
       <c r="Y44" t="n">
-        <v>146.2673510243318</v>
+        <v>146.2673510243317</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4065,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7381070793004</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.0400690602069</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>43.64704448224934</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U45" t="n">
-        <v>1.209425642551635</v>
+        <v>1.209425642551606</v>
       </c>
       <c r="V45" t="n">
-        <v>4.630704521284116</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>30.68636718289346</v>
+        <v>77.8564357757174</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.63804345455765</v>
+        <v>52.63804345455763</v>
       </c>
       <c r="V46" t="n">
-        <v>9.090798790331775</v>
+        <v>9.090798790331746</v>
       </c>
       <c r="W46" t="n">
-        <v>54.2924906952172</v>
+        <v>54.29249069521717</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.36244998686014</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="C11" t="n">
-        <v>91.36244998686014</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="D11" t="n">
-        <v>91.36244998686014</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="E11" t="n">
         <v>6.704879576500486</v>
@@ -5042,49 +5042,49 @@
         <v>6.704879576500486</v>
       </c>
       <c r="K11" t="n">
-        <v>79.83206084168168</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="L11" t="n">
-        <v>128.4500899503233</v>
+        <v>55.32290868514211</v>
       </c>
       <c r="M11" t="n">
-        <v>211.4229747095168</v>
+        <v>138.2957934443356</v>
       </c>
       <c r="N11" t="n">
-        <v>288.8960114725999</v>
+        <v>221.2686782035291</v>
       </c>
       <c r="O11" t="n">
-        <v>325.1422444635011</v>
+        <v>257.5149111944303</v>
       </c>
       <c r="P11" t="n">
-        <v>325.1422444635011</v>
+        <v>335.2439788250243</v>
       </c>
       <c r="Q11" t="n">
-        <v>325.1422444635011</v>
+        <v>335.2439788250243</v>
       </c>
       <c r="R11" t="n">
         <v>335.2439788250243</v>
       </c>
       <c r="S11" t="n">
-        <v>312.0947162376296</v>
+        <v>312.0947162376298</v>
       </c>
       <c r="T11" t="n">
-        <v>293.8217663800695</v>
+        <v>293.8217663800701</v>
       </c>
       <c r="U11" t="n">
-        <v>247.531799163075</v>
+        <v>260.6775908075795</v>
       </c>
       <c r="V11" t="n">
-        <v>247.531799163075</v>
+        <v>176.0200203972198</v>
       </c>
       <c r="W11" t="n">
-        <v>176.0200203972198</v>
+        <v>91.36244998686016</v>
       </c>
       <c r="X11" t="n">
-        <v>91.36244998686014</v>
+        <v>91.36244998686016</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.36244998686014</v>
+        <v>6.704879576500486</v>
       </c>
     </row>
     <row r="12">
@@ -5121,46 +5121,46 @@
         <v>6.704879576500486</v>
       </c>
       <c r="K12" t="n">
-        <v>6.704879576500486</v>
+        <v>45.70690058228107</v>
       </c>
       <c r="L12" t="n">
-        <v>89.67776433569399</v>
+        <v>128.6797853414746</v>
       </c>
       <c r="M12" t="n">
-        <v>172.6506490948875</v>
+        <v>211.6526701006681</v>
       </c>
       <c r="N12" t="n">
-        <v>255.623533854081</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="O12" t="n">
-        <v>335.2439788250243</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="P12" t="n">
         <v>335.2439788250243</v>
       </c>
       <c r="Q12" t="n">
-        <v>329.1428989662294</v>
+        <v>335.2439788250243</v>
       </c>
       <c r="R12" t="n">
-        <v>244.4853285558698</v>
+        <v>335.2439788250243</v>
       </c>
       <c r="S12" t="n">
-        <v>244.4853285558698</v>
+        <v>250.5864084146646</v>
       </c>
       <c r="T12" t="n">
-        <v>233.7558011999075</v>
+        <v>239.8568810587026</v>
       </c>
       <c r="U12" t="n">
-        <v>200.5182864763484</v>
+        <v>155.1993106483429</v>
       </c>
       <c r="V12" t="n">
-        <v>163.8249345015444</v>
+        <v>102.0930379294987</v>
       </c>
       <c r="W12" t="n">
-        <v>100.8127313533976</v>
+        <v>39.08083478135217</v>
       </c>
       <c r="X12" t="n">
-        <v>87.69110309165585</v>
+        <v>25.95920651961067</v>
       </c>
       <c r="Y12" t="n">
         <v>6.704879576500486</v>
@@ -5182,64 +5182,64 @@
         <v>6.704879576500486</v>
       </c>
       <c r="E13" t="n">
-        <v>68.72477721214055</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="F13" t="n">
-        <v>68.72477721214055</v>
+        <v>71.44654361598137</v>
       </c>
       <c r="G13" t="n">
-        <v>68.72477721214055</v>
+        <v>92.57844814255787</v>
       </c>
       <c r="H13" t="n">
-        <v>68.72477721214055</v>
+        <v>92.57844814255787</v>
       </c>
       <c r="I13" t="n">
-        <v>68.72477721214055</v>
+        <v>131.8154611692778</v>
       </c>
       <c r="J13" t="n">
-        <v>151.6976619713341</v>
+        <v>131.8154611692778</v>
       </c>
       <c r="K13" t="n">
-        <v>151.6976619713341</v>
+        <v>131.8154611692778</v>
       </c>
       <c r="L13" t="n">
-        <v>222.1012945531764</v>
+        <v>214.7883459284713</v>
       </c>
       <c r="M13" t="n">
-        <v>222.1012945531764</v>
+        <v>297.7612306876648</v>
       </c>
       <c r="N13" t="n">
-        <v>222.1012945531764</v>
+        <v>297.7612306876648</v>
       </c>
       <c r="O13" t="n">
-        <v>222.1012945531764</v>
+        <v>297.7612306876648</v>
       </c>
       <c r="P13" t="n">
-        <v>222.1012945531764</v>
+        <v>297.7612306876648</v>
       </c>
       <c r="Q13" t="n">
-        <v>298.8873231502156</v>
+        <v>297.7612306876648</v>
       </c>
       <c r="R13" t="n">
-        <v>298.8873231502156</v>
+        <v>298.8873231502143</v>
       </c>
       <c r="S13" t="n">
-        <v>267.5533715330071</v>
+        <v>267.5533715330061</v>
       </c>
       <c r="T13" t="n">
-        <v>247.9414709283532</v>
+        <v>247.9414709283524</v>
       </c>
       <c r="U13" t="n">
-        <v>163.2839005179935</v>
+        <v>163.2839005179927</v>
       </c>
       <c r="V13" t="n">
-        <v>122.0854028168787</v>
+        <v>122.0854028168782</v>
       </c>
       <c r="W13" t="n">
-        <v>37.42783240651907</v>
+        <v>37.42783240651856</v>
       </c>
       <c r="X13" t="n">
-        <v>19.65313245914912</v>
+        <v>19.65313245914886</v>
       </c>
       <c r="Y13" t="n">
         <v>6.704879576500486</v>
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>212.6049707681578</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="C14" t="n">
-        <v>212.6049707681578</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="D14" t="n">
-        <v>212.6049707681578</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="E14" t="n">
-        <v>212.6049707681578</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="F14" t="n">
-        <v>212.6049707681578</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="G14" t="n">
-        <v>127.9474003577981</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="H14" t="n">
-        <v>43.28982994743847</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="I14" t="n">
         <v>6.704879576500486</v>
       </c>
       <c r="J14" t="n">
-        <v>6.704879576500486</v>
+        <v>89.67776433569399</v>
       </c>
       <c r="K14" t="n">
-        <v>6.704879576500486</v>
+        <v>89.93379520320488</v>
       </c>
       <c r="L14" t="n">
-        <v>55.32290868514211</v>
+        <v>138.5518243118465</v>
       </c>
       <c r="M14" t="n">
-        <v>138.2957934443356</v>
+        <v>221.52470907104</v>
       </c>
       <c r="N14" t="n">
-        <v>215.7688302074187</v>
+        <v>298.9977458341231</v>
       </c>
       <c r="O14" t="n">
-        <v>252.0150631983199</v>
+        <v>335.2439788250243</v>
       </c>
       <c r="P14" t="n">
-        <v>252.2710940658308</v>
+        <v>335.2439788250243</v>
       </c>
       <c r="Q14" t="n">
         <v>335.2439788250243</v>
@@ -5303,25 +5303,25 @@
         <v>335.2439788250243</v>
       </c>
       <c r="S14" t="n">
-        <v>312.0947162376297</v>
+        <v>335.2439788250243</v>
       </c>
       <c r="T14" t="n">
-        <v>293.8217663800698</v>
+        <v>316.9710289674646</v>
       </c>
       <c r="U14" t="n">
-        <v>247.5317991630754</v>
+        <v>270.6810617504705</v>
       </c>
       <c r="V14" t="n">
-        <v>247.5317991630754</v>
+        <v>186.0234913401108</v>
       </c>
       <c r="W14" t="n">
-        <v>247.5317991630754</v>
+        <v>101.3659209297511</v>
       </c>
       <c r="X14" t="n">
-        <v>247.5317991630754</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="Y14" t="n">
-        <v>212.6049707681578</v>
+        <v>91.3624499868602</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59.09004019497618</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="C15" t="n">
-        <v>59.09004019497618</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="D15" t="n">
-        <v>59.09004019497618</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="E15" t="n">
-        <v>59.09004019497618</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="F15" t="n">
-        <v>59.09004019497618</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="G15" t="n">
-        <v>59.09004019497618</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="H15" t="n">
-        <v>59.09004019497618</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="I15" t="n">
-        <v>59.09004019497618</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="J15" t="n">
         <v>6.704879576500486</v>
       </c>
       <c r="K15" t="n">
-        <v>45.70690058228108</v>
+        <v>45.70690058228107</v>
       </c>
       <c r="L15" t="n">
-        <v>45.70690058228108</v>
+        <v>128.6797853414746</v>
       </c>
       <c r="M15" t="n">
-        <v>86.32532454744376</v>
+        <v>211.6526701006681</v>
       </c>
       <c r="N15" t="n">
-        <v>169.2982093066373</v>
+        <v>294.6255548598616</v>
       </c>
       <c r="O15" t="n">
-        <v>252.2710940658308</v>
+        <v>335.2439788250243</v>
       </c>
       <c r="P15" t="n">
         <v>335.2439788250243</v>
@@ -5382,25 +5382,25 @@
         <v>250.5864084146646</v>
       </c>
       <c r="S15" t="n">
-        <v>250.5864084146646</v>
+        <v>234.1734876706239</v>
       </c>
       <c r="T15" t="n">
-        <v>224.4090652463378</v>
+        <v>223.4439603146619</v>
       </c>
       <c r="U15" t="n">
-        <v>191.1715505227788</v>
+        <v>138.7863899043022</v>
       </c>
       <c r="V15" t="n">
-        <v>154.4781985479749</v>
+        <v>102.0930379294985</v>
       </c>
       <c r="W15" t="n">
-        <v>91.4659953998282</v>
+        <v>39.08083478135205</v>
       </c>
       <c r="X15" t="n">
-        <v>78.34436713808654</v>
+        <v>25.95920651961062</v>
       </c>
       <c r="Y15" t="n">
-        <v>59.09004019497618</v>
+        <v>6.704879576500486</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.14340555392497</v>
+        <v>33.14340555392519</v>
       </c>
       <c r="C16" t="n">
-        <v>33.14340555392497</v>
+        <v>33.14340555392519</v>
       </c>
       <c r="D16" t="n">
-        <v>91.69185924146427</v>
+        <v>91.6918592414647</v>
       </c>
       <c r="E16" t="n">
-        <v>91.69185924146427</v>
+        <v>91.6918592414647</v>
       </c>
       <c r="F16" t="n">
-        <v>91.69185924146427</v>
+        <v>91.6918592414647</v>
       </c>
       <c r="G16" t="n">
-        <v>91.69185924146427</v>
+        <v>91.6918592414647</v>
       </c>
       <c r="H16" t="n">
-        <v>91.69185924146427</v>
+        <v>91.6918592414647</v>
       </c>
       <c r="I16" t="n">
-        <v>91.69185924146427</v>
+        <v>91.6918592414647</v>
       </c>
       <c r="J16" t="n">
-        <v>91.69185924146427</v>
+        <v>91.6918592414647</v>
       </c>
       <c r="K16" t="n">
-        <v>174.6647440006578</v>
+        <v>91.6918592414647</v>
       </c>
       <c r="L16" t="n">
-        <v>174.6647440006578</v>
+        <v>174.6647440006582</v>
       </c>
       <c r="M16" t="n">
-        <v>174.6647440006578</v>
+        <v>257.6376287598517</v>
       </c>
       <c r="N16" t="n">
-        <v>174.6647440006578</v>
+        <v>257.6376287598517</v>
       </c>
       <c r="O16" t="n">
-        <v>174.6647440006578</v>
+        <v>297.7612306876645</v>
       </c>
       <c r="P16" t="n">
-        <v>220.9752020906266</v>
+        <v>297.7612306876645</v>
       </c>
       <c r="Q16" t="n">
-        <v>297.7612306876658</v>
+        <v>297.7612306876645</v>
       </c>
       <c r="R16" t="n">
-        <v>298.8873231502152</v>
+        <v>298.8873231502141</v>
       </c>
       <c r="S16" t="n">
-        <v>267.5533715330068</v>
+        <v>267.5533715330059</v>
       </c>
       <c r="T16" t="n">
-        <v>247.9414709283529</v>
+        <v>247.9414709283523</v>
       </c>
       <c r="U16" t="n">
-        <v>163.2839005179933</v>
+        <v>163.2839005179926</v>
       </c>
       <c r="V16" t="n">
-        <v>122.0854028168786</v>
+        <v>122.0854028168781</v>
       </c>
       <c r="W16" t="n">
-        <v>37.4278324065189</v>
+        <v>37.42783240651845</v>
       </c>
       <c r="X16" t="n">
-        <v>19.65313245914903</v>
+        <v>19.6531324591488</v>
       </c>
       <c r="Y16" t="n">
         <v>6.704879576500486</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>222.9398147825187</v>
+        <v>222.9398147825189</v>
       </c>
       <c r="C17" t="n">
-        <v>208.3056920527107</v>
+        <v>208.3056920527111</v>
       </c>
       <c r="D17" t="n">
-        <v>206.2304963319447</v>
+        <v>206.2304963319451</v>
       </c>
       <c r="E17" t="n">
-        <v>170.1080759451091</v>
+        <v>170.1080759451095</v>
       </c>
       <c r="F17" t="n">
-        <v>101.9449105296095</v>
+        <v>101.9449105296099</v>
       </c>
       <c r="G17" t="n">
-        <v>17.99711912507084</v>
+        <v>17.99711912507078</v>
       </c>
       <c r="H17" t="n">
         <v>6.704879576500486</v>
@@ -5519,46 +5519,46 @@
         <v>6.704879576500486</v>
       </c>
       <c r="L17" t="n">
-        <v>55.32290868514211</v>
+        <v>55.578939552653</v>
       </c>
       <c r="M17" t="n">
-        <v>138.2957934443356</v>
+        <v>138.5518243118465</v>
       </c>
       <c r="N17" t="n">
-        <v>215.7688302074187</v>
+        <v>216.0248610749296</v>
       </c>
       <c r="O17" t="n">
-        <v>252.0150631983199</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="P17" t="n">
-        <v>252.0150631983199</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="Q17" t="n">
-        <v>320.5544258782026</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="R17" t="n">
-        <v>320.5544258782026</v>
+        <v>335.2439788250243</v>
       </c>
       <c r="S17" t="n">
-        <v>320.5544258782026</v>
+        <v>335.2439788250243</v>
       </c>
       <c r="T17" t="n">
-        <v>320.5544258782026</v>
+        <v>335.2439788250243</v>
       </c>
       <c r="U17" t="n">
-        <v>320.5544258782026</v>
+        <v>335.2439788250243</v>
       </c>
       <c r="V17" t="n">
         <v>335.2439788250243</v>
       </c>
       <c r="W17" t="n">
-        <v>333.0432233229051</v>
+        <v>333.0432233229052</v>
       </c>
       <c r="X17" t="n">
-        <v>308.7351441147867</v>
+        <v>308.7351441147869</v>
       </c>
       <c r="Y17" t="n">
-        <v>261.6969102362201</v>
+        <v>261.6969102362203</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>228.4051810156955</v>
+        <v>75.17018773515046</v>
       </c>
       <c r="C18" t="n">
-        <v>228.4051810156955</v>
+        <v>75.17018773515046</v>
       </c>
       <c r="D18" t="n">
-        <v>143.7476106053358</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="E18" t="n">
-        <v>143.7476106053358</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="F18" t="n">
-        <v>143.7476106053358</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="G18" t="n">
-        <v>143.7476106053358</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="H18" t="n">
-        <v>143.7476106053358</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="I18" t="n">
-        <v>59.09004019497618</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="J18" t="n">
         <v>6.704879576500486</v>
       </c>
       <c r="K18" t="n">
-        <v>45.70690058228108</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="L18" t="n">
-        <v>128.6797853414746</v>
+        <v>89.67776433569399</v>
       </c>
       <c r="M18" t="n">
-        <v>211.6526701006681</v>
+        <v>169.2982093066373</v>
       </c>
       <c r="N18" t="n">
-        <v>294.6255548598616</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="O18" t="n">
         <v>335.2439788250243</v>
@@ -5619,25 +5619,25 @@
         <v>244.4853285558698</v>
       </c>
       <c r="S18" t="n">
-        <v>228.4051810156955</v>
+        <v>244.4853285558698</v>
       </c>
       <c r="T18" t="n">
-        <v>228.4051810156955</v>
+        <v>244.4853285558698</v>
       </c>
       <c r="U18" t="n">
-        <v>228.4051810156955</v>
+        <v>244.4853285558698</v>
       </c>
       <c r="V18" t="n">
-        <v>228.4051810156955</v>
+        <v>244.4853285558698</v>
       </c>
       <c r="W18" t="n">
-        <v>228.4051810156955</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="X18" t="n">
-        <v>228.4051810156955</v>
+        <v>75.17018773515046</v>
       </c>
       <c r="Y18" t="n">
-        <v>228.4051810156955</v>
+        <v>75.17018773515046</v>
       </c>
     </row>
     <row r="19">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>222.9398147825189</v>
+        <v>222.9398147825187</v>
       </c>
       <c r="C20" t="n">
-        <v>208.3056920527111</v>
+        <v>208.3056920527106</v>
       </c>
       <c r="D20" t="n">
-        <v>206.2304963319442</v>
+        <v>206.2304963319446</v>
       </c>
       <c r="E20" t="n">
-        <v>170.1080759451086</v>
+        <v>170.1080759451091</v>
       </c>
       <c r="F20" t="n">
         <v>101.944910529609</v>
@@ -5756,22 +5756,22 @@
         <v>6.704879576500486</v>
       </c>
       <c r="L20" t="n">
-        <v>55.32290868514211</v>
+        <v>55.578939552653</v>
       </c>
       <c r="M20" t="n">
-        <v>138.2957934443356</v>
+        <v>138.5518243118465</v>
       </c>
       <c r="N20" t="n">
-        <v>215.7688302074187</v>
+        <v>216.0248610749296</v>
       </c>
       <c r="O20" t="n">
-        <v>252.0150631983199</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="P20" t="n">
-        <v>252.0150631983199</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="Q20" t="n">
-        <v>252.0150631983199</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="R20" t="n">
         <v>252.2710940658308</v>
@@ -5792,10 +5792,10 @@
         <v>333.0432233229052</v>
       </c>
       <c r="X20" t="n">
-        <v>308.7351441147869</v>
+        <v>308.7351441147868</v>
       </c>
       <c r="Y20" t="n">
-        <v>261.6969102362203</v>
+        <v>261.6969102362201</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>143.7476106053358</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="C21" t="n">
-        <v>143.7476106053358</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="D21" t="n">
-        <v>143.7476106053358</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="E21" t="n">
-        <v>143.7476106053358</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="F21" t="n">
-        <v>143.7476106053358</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="G21" t="n">
-        <v>143.7476106053358</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="H21" t="n">
-        <v>143.7476106053358</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="I21" t="n">
-        <v>59.09004019497618</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="J21" t="n">
         <v>6.704879576500486</v>
       </c>
       <c r="K21" t="n">
-        <v>6.704879576500486</v>
+        <v>45.70690058228107</v>
       </c>
       <c r="L21" t="n">
-        <v>89.67776433569399</v>
+        <v>86.32532454744376</v>
       </c>
       <c r="M21" t="n">
-        <v>89.67776433569399</v>
+        <v>169.2982093066373</v>
       </c>
       <c r="N21" t="n">
         <v>169.2982093066373</v>
@@ -5856,25 +5856,25 @@
         <v>244.4853285558698</v>
       </c>
       <c r="S21" t="n">
-        <v>159.8277581455101</v>
+        <v>244.4853285558698</v>
       </c>
       <c r="T21" t="n">
-        <v>143.7476106053358</v>
+        <v>244.4853285558698</v>
       </c>
       <c r="U21" t="n">
-        <v>143.7476106053358</v>
+        <v>244.4853285558698</v>
       </c>
       <c r="V21" t="n">
-        <v>143.7476106053358</v>
+        <v>176.0200203972198</v>
       </c>
       <c r="W21" t="n">
-        <v>143.7476106053358</v>
+        <v>176.0200203972198</v>
       </c>
       <c r="X21" t="n">
-        <v>143.7476106053358</v>
+        <v>91.36244998686016</v>
       </c>
       <c r="Y21" t="n">
-        <v>143.7476106053358</v>
+        <v>91.36244998686016</v>
       </c>
     </row>
     <row r="22">
@@ -5966,10 +5966,10 @@
         <v>222.9398147825187</v>
       </c>
       <c r="C23" t="n">
-        <v>208.3056920527106</v>
+        <v>208.3056920527107</v>
       </c>
       <c r="D23" t="n">
-        <v>206.2304963319446</v>
+        <v>206.2304963319447</v>
       </c>
       <c r="E23" t="n">
         <v>170.1080759451091</v>
@@ -5999,25 +5999,25 @@
         <v>138.2957934443356</v>
       </c>
       <c r="N23" t="n">
-        <v>215.7688302074187</v>
+        <v>216.0248610749296</v>
       </c>
       <c r="O23" t="n">
-        <v>252.0150631983199</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="P23" t="n">
-        <v>252.0150631983199</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="Q23" t="n">
-        <v>252.0150631983199</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="R23" t="n">
-        <v>252.0150631983199</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="S23" t="n">
-        <v>252.0150631983199</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="T23" t="n">
-        <v>334.9879479575134</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="U23" t="n">
         <v>335.2439788250243</v>
@@ -6026,10 +6026,10 @@
         <v>335.2439788250243</v>
       </c>
       <c r="W23" t="n">
-        <v>333.0432233229052</v>
+        <v>333.0432233229051</v>
       </c>
       <c r="X23" t="n">
-        <v>308.7351441147868</v>
+        <v>308.7351441147867</v>
       </c>
       <c r="Y23" t="n">
         <v>261.6969102362201</v>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>260.6775908075795</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="C24" t="n">
-        <v>176.0200203972198</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="D24" t="n">
-        <v>91.36244998686016</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="E24" t="n">
         <v>6.704879576500486</v>
@@ -6069,49 +6069,49 @@
         <v>6.704879576500486</v>
       </c>
       <c r="K24" t="n">
-        <v>6.704879576500486</v>
+        <v>45.70690058228107</v>
       </c>
       <c r="L24" t="n">
-        <v>6.704879576500486</v>
+        <v>128.6797853414746</v>
       </c>
       <c r="M24" t="n">
-        <v>86.32532454744376</v>
+        <v>128.6797853414746</v>
       </c>
       <c r="N24" t="n">
-        <v>169.2982093066373</v>
+        <v>211.6526701006681</v>
       </c>
       <c r="O24" t="n">
-        <v>252.2710940658308</v>
+        <v>294.6255548598616</v>
       </c>
       <c r="P24" t="n">
         <v>335.2439788250243</v>
       </c>
       <c r="Q24" t="n">
-        <v>335.2439788250243</v>
+        <v>329.1428989662294</v>
       </c>
       <c r="R24" t="n">
-        <v>335.2439788250243</v>
+        <v>244.4853285558698</v>
       </c>
       <c r="S24" t="n">
-        <v>335.2439788250243</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="T24" t="n">
-        <v>335.2439788250243</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="U24" t="n">
-        <v>335.2439788250243</v>
+        <v>75.17018773515046</v>
       </c>
       <c r="V24" t="n">
-        <v>335.2439788250243</v>
+        <v>75.17018773515046</v>
       </c>
       <c r="W24" t="n">
-        <v>335.2439788250243</v>
+        <v>75.17018773515046</v>
       </c>
       <c r="X24" t="n">
-        <v>335.2439788250243</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="Y24" t="n">
-        <v>335.2439788250243</v>
+        <v>6.704879576500486</v>
       </c>
     </row>
     <row r="25">
@@ -6203,37 +6203,37 @@
         <v>1025.008801653035</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2582049790295</v>
+        <v>886.258204979029</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0665353140656</v>
+        <v>760.0665353140652</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8276409830321</v>
+        <v>599.8276409830316</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5480016233346</v>
+        <v>407.5480016233341</v>
       </c>
       <c r="G26" t="n">
         <v>199.483736274598</v>
       </c>
       <c r="H26" t="n">
-        <v>64.0750227818298</v>
+        <v>64.07502278182989</v>
       </c>
       <c r="I26" t="n">
         <v>36.09603626297935</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8165816897311</v>
+        <v>171.816581689731</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3999075957676</v>
+        <v>377.3999075957674</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7319193115832</v>
+        <v>636.7319193115829</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4187866779497</v>
+        <v>930.4187866779503</v>
       </c>
       <c r="N26" t="n">
         <v>1218.605806048207</v>
@@ -6242,13 +6242,13 @@
         <v>1465.566021646282</v>
       </c>
       <c r="P26" t="n">
-        <v>1663.067752909547</v>
+        <v>1663.067752909548</v>
       </c>
       <c r="Q26" t="n">
         <v>1786.265373616013</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.801813148967</v>
+        <v>1804.801813148968</v>
       </c>
       <c r="S26" t="n">
         <v>1790.25851441366</v>
@@ -6269,7 +6269,7 @@
         <v>1359.037078873699</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.882371050935</v>
+        <v>1187.882371050934</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>386.2884267689839</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="C27" t="n">
-        <v>196.8761525019476</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="D27" t="n">
         <v>36.09603626297935</v>
@@ -6315,40 +6315,40 @@
         <v>377.1341054696064</v>
       </c>
       <c r="N27" t="n">
-        <v>583.7120474725131</v>
+        <v>583.7120474725129</v>
       </c>
       <c r="O27" t="n">
-        <v>716.9434237680044</v>
+        <v>716.9434237680043</v>
       </c>
       <c r="P27" t="n">
-        <v>801.7968473846419</v>
+        <v>801.7968473846418</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.7968473846419</v>
+        <v>801.7968473846418</v>
       </c>
       <c r="R27" t="n">
-        <v>801.7968473846419</v>
+        <v>783.8976120217944</v>
       </c>
       <c r="S27" t="n">
-        <v>801.7968473846419</v>
+        <v>590.4934655050773</v>
       </c>
       <c r="T27" t="n">
-        <v>799.6732838807671</v>
+        <v>588.3699020012026</v>
       </c>
       <c r="U27" t="n">
-        <v>775.0417330092957</v>
+        <v>563.7383511297311</v>
       </c>
       <c r="V27" t="n">
-        <v>746.9543448865793</v>
+        <v>320.6586330333652</v>
       </c>
       <c r="W27" t="n">
-        <v>579.9883071965959</v>
+        <v>266.2523937373059</v>
       </c>
       <c r="X27" t="n">
-        <v>575.4726427869417</v>
+        <v>261.7367293276517</v>
       </c>
       <c r="Y27" t="n">
-        <v>564.8242796959189</v>
+        <v>36.09603626297935</v>
       </c>
     </row>
     <row r="28">
@@ -6379,52 +6379,52 @@
         <v>36.09603626297935</v>
       </c>
       <c r="I28" t="n">
-        <v>83.76775446113008</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="J28" t="n">
-        <v>83.76775446113008</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="K28" t="n">
-        <v>228.748593442172</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="L28" t="n">
-        <v>228.748593442172</v>
+        <v>215.7814720663487</v>
       </c>
       <c r="M28" t="n">
-        <v>270.7639779274411</v>
+        <v>215.7814720663487</v>
       </c>
       <c r="N28" t="n">
-        <v>270.7639779274411</v>
+        <v>215.7814720663487</v>
       </c>
       <c r="O28" t="n">
-        <v>270.7639779274411</v>
+        <v>215.7814720663487</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7639779274411</v>
+        <v>215.7814720663487</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7639779274411</v>
+        <v>270.7639779274418</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7639779274411</v>
+        <v>270.7639779274418</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0359901623203</v>
+        <v>248.0359901623208</v>
       </c>
       <c r="T28" t="n">
-        <v>237.030053409754</v>
+        <v>237.0300534097544</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4504037382764</v>
+        <v>160.4504037382768</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8578698892493</v>
+        <v>127.8578698892495</v>
       </c>
       <c r="W28" t="n">
-        <v>49.60706138882269</v>
+        <v>49.60706138882287</v>
       </c>
       <c r="X28" t="n">
-        <v>40.43832529354036</v>
+        <v>40.43832529354045</v>
       </c>
       <c r="Y28" t="n">
         <v>36.09603626297935</v>
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1025.008801653034</v>
+        <v>1025.008801653035</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2582049790284</v>
+        <v>886.2582049790292</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0665353140644</v>
+        <v>760.0665353140652</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8276409830307</v>
+        <v>599.8276409830316</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5480016233332</v>
+        <v>407.5480016233341</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4837362745977</v>
+        <v>199.4837362745986</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07502278182989</v>
+        <v>64.07502278183028</v>
       </c>
       <c r="I29" t="n">
         <v>36.09603626297935</v>
       </c>
       <c r="J29" t="n">
-        <v>171.816581689731</v>
+        <v>171.8165816897313</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3999075957674</v>
+        <v>377.3999075957677</v>
       </c>
       <c r="L29" t="n">
         <v>636.7319193115832</v>
@@ -6473,7 +6473,7 @@
         <v>930.4187866779505</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.605806048207</v>
+        <v>1218.605806048208</v>
       </c>
       <c r="O29" t="n">
         <v>1465.566021646282</v>
@@ -6485,16 +6485,16 @@
         <v>1786.265373616013</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.801813148967</v>
+        <v>1804.801813148968</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.258514413659</v>
+        <v>1790.25851441366</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.591528408187</v>
+        <v>1780.591528408188</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.90752504328</v>
+        <v>1742.907525043281</v>
       </c>
       <c r="V29" t="n">
         <v>1633.778861472332</v>
@@ -6503,10 +6503,10 @@
         <v>1507.461632026015</v>
       </c>
       <c r="X29" t="n">
-        <v>1359.037078873698</v>
+        <v>1359.037078873699</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.882371050934</v>
+        <v>1187.882371050935</v>
       </c>
     </row>
     <row r="30">
@@ -6552,40 +6552,40 @@
         <v>377.1341054696064</v>
       </c>
       <c r="N30" t="n">
-        <v>583.7120474725131</v>
+        <v>583.7120474725129</v>
       </c>
       <c r="O30" t="n">
-        <v>716.9434237680044</v>
+        <v>716.9434237680043</v>
       </c>
       <c r="P30" t="n">
-        <v>801.7968473846419</v>
+        <v>801.7968473846418</v>
       </c>
       <c r="Q30" t="n">
-        <v>801.7968473846419</v>
+        <v>801.7968473846418</v>
       </c>
       <c r="R30" t="n">
-        <v>801.7968473846419</v>
+        <v>666.1237238170881</v>
       </c>
       <c r="S30" t="n">
-        <v>801.7968473846419</v>
+        <v>666.1237238170881</v>
       </c>
       <c r="T30" t="n">
-        <v>799.6732838807671</v>
+        <v>664.0001603132134</v>
       </c>
       <c r="U30" t="n">
-        <v>560.0494030356462</v>
+        <v>639.3686094417419</v>
       </c>
       <c r="V30" t="n">
-        <v>499.1944859603002</v>
+        <v>611.2812213190255</v>
       </c>
       <c r="W30" t="n">
-        <v>229.7959166905916</v>
+        <v>341.8826520493168</v>
       </c>
       <c r="X30" t="n">
-        <v>225.2802522809373</v>
+        <v>337.3669876396626</v>
       </c>
       <c r="Y30" t="n">
-        <v>214.6318891899144</v>
+        <v>111.7262945749903</v>
       </c>
     </row>
     <row r="31">
@@ -6634,34 +6634,34 @@
         <v>36.09603626297935</v>
       </c>
       <c r="O31" t="n">
-        <v>210.4681610200994</v>
+        <v>117.2915825341741</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7639779274417</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7639779274417</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7639779274417</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0359901623208</v>
+        <v>248.0359901623206</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0300534097544</v>
+        <v>237.0300534097543</v>
       </c>
       <c r="U31" t="n">
         <v>160.4504037382767</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8578698892495</v>
+        <v>127.8578698892494</v>
       </c>
       <c r="W31" t="n">
-        <v>49.60706138882286</v>
+        <v>49.60706138882281</v>
       </c>
       <c r="X31" t="n">
-        <v>40.43832529354044</v>
+        <v>40.43832529354042</v>
       </c>
       <c r="Y31" t="n">
         <v>36.09603626297935</v>
@@ -6677,22 +6677,22 @@
         <v>1025.008801653035</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2582049790295</v>
+        <v>886.2582049790292</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0665353140657</v>
+        <v>760.0665353140653</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8276409830321</v>
+        <v>599.8276409830316</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5480016233346</v>
+        <v>407.5480016233341</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4837362745985</v>
+        <v>199.4837362745981</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07502278182983</v>
+        <v>64.0750227818298</v>
       </c>
       <c r="I32" t="n">
         <v>36.09603626297935</v>
@@ -6704,10 +6704,10 @@
         <v>377.3999075957676</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7319193115831</v>
+        <v>636.7319193115832</v>
       </c>
       <c r="M32" t="n">
-        <v>930.4187866779497</v>
+        <v>930.4187866779505</v>
       </c>
       <c r="N32" t="n">
         <v>1218.605806048207</v>
@@ -6716,13 +6716,13 @@
         <v>1465.566021646282</v>
       </c>
       <c r="P32" t="n">
-        <v>1663.067752909547</v>
+        <v>1663.067752909548</v>
       </c>
       <c r="Q32" t="n">
         <v>1786.265373616013</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.801813148967</v>
+        <v>1804.801813148968</v>
       </c>
       <c r="S32" t="n">
         <v>1790.25851441366</v>
@@ -6731,19 +6731,19 @@
         <v>1780.591528408188</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.907525043282</v>
+        <v>1742.907525043281</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.778861472333</v>
+        <v>1633.778861472332</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.461632026016</v>
+        <v>1507.461632026015</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.0370788737</v>
+        <v>1359.037078873699</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.882371050935</v>
+        <v>1187.882371050934</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>498.8482251629079</v>
+        <v>105.6252147161955</v>
       </c>
       <c r="C33" t="n">
-        <v>309.4359508958717</v>
+        <v>105.6252147161955</v>
       </c>
       <c r="D33" t="n">
-        <v>148.6558346569034</v>
+        <v>105.6252147161955</v>
       </c>
       <c r="E33" t="n">
         <v>36.09603626297935</v>
@@ -6789,40 +6789,40 @@
         <v>377.1341054696064</v>
       </c>
       <c r="N33" t="n">
-        <v>583.7120474725131</v>
+        <v>583.7120474725129</v>
       </c>
       <c r="O33" t="n">
-        <v>716.9434237680044</v>
+        <v>716.9434237680043</v>
       </c>
       <c r="P33" t="n">
-        <v>801.7968473846419</v>
+        <v>801.7968473846418</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.7968473846419</v>
+        <v>795.6957675258469</v>
       </c>
       <c r="R33" t="n">
-        <v>801.7968473846419</v>
+        <v>660.0226439582932</v>
       </c>
       <c r="S33" t="n">
-        <v>801.7968473846419</v>
+        <v>660.0226439582932</v>
       </c>
       <c r="T33" t="n">
-        <v>799.6732838807671</v>
+        <v>442.906750480769</v>
       </c>
       <c r="U33" t="n">
-        <v>775.0417330092956</v>
+        <v>203.282869635648</v>
       </c>
       <c r="V33" t="n">
-        <v>746.9543448865792</v>
+        <v>175.1954815129317</v>
       </c>
       <c r="W33" t="n">
-        <v>692.54810559052</v>
+        <v>120.7892422168725</v>
       </c>
       <c r="X33" t="n">
-        <v>688.0324411808658</v>
+        <v>116.2735778072184</v>
       </c>
       <c r="Y33" t="n">
-        <v>677.384078089843</v>
+        <v>105.6252147161955</v>
       </c>
     </row>
     <row r="34">
@@ -6835,70 +6835,70 @@
         <v>36.09603626297935</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09603626297935</v>
+        <v>82.01740970790061</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09603626297935</v>
+        <v>82.01740970790061</v>
       </c>
       <c r="E34" t="n">
-        <v>106.5506390700505</v>
+        <v>82.01740970790061</v>
       </c>
       <c r="F34" t="n">
-        <v>106.5506390700505</v>
+        <v>82.01740970790061</v>
       </c>
       <c r="G34" t="n">
-        <v>106.5506390700505</v>
+        <v>82.01740970790061</v>
       </c>
       <c r="H34" t="n">
-        <v>153.1464142357249</v>
+        <v>82.01740970790061</v>
       </c>
       <c r="I34" t="n">
-        <v>200.8181324338756</v>
+        <v>82.01740970790061</v>
       </c>
       <c r="J34" t="n">
-        <v>270.7639779274413</v>
+        <v>82.01740970790061</v>
       </c>
       <c r="K34" t="n">
-        <v>270.7639779274413</v>
+        <v>82.01740970790061</v>
       </c>
       <c r="L34" t="n">
-        <v>270.7639779274413</v>
+        <v>261.70284551127</v>
       </c>
       <c r="M34" t="n">
-        <v>270.7639779274413</v>
+        <v>261.70284551127</v>
       </c>
       <c r="N34" t="n">
-        <v>270.7639779274413</v>
+        <v>261.70284551127</v>
       </c>
       <c r="O34" t="n">
-        <v>270.7639779274413</v>
+        <v>270.7639779274411</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7639779274413</v>
+        <v>270.7639779274411</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7639779274413</v>
+        <v>270.7639779274411</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7639779274413</v>
+        <v>270.7639779274411</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0359901623204</v>
+        <v>248.0359901623203</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0300534097541</v>
+        <v>237.030053409754</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4504037382765</v>
+        <v>160.4504037382764</v>
       </c>
       <c r="V34" t="n">
         <v>127.8578698892493</v>
       </c>
       <c r="W34" t="n">
-        <v>49.60706138882275</v>
+        <v>49.60706138882269</v>
       </c>
       <c r="X34" t="n">
-        <v>40.43832529354039</v>
+        <v>40.43832529354036</v>
       </c>
       <c r="Y34" t="n">
         <v>36.09603626297935</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>854.4345604185182</v>
+        <v>854.4345604185185</v>
       </c>
       <c r="C35" t="n">
-        <v>739.0938725528003</v>
+        <v>739.0938725528005</v>
       </c>
       <c r="D35" t="n">
         <v>636.3121116961245</v>
@@ -6926,61 +6926,61 @@
         <v>330.6133956219695</v>
       </c>
       <c r="G35" t="n">
-        <v>145.9590390815215</v>
+        <v>145.9590390815214</v>
       </c>
       <c r="H35" t="n">
-        <v>33.96023439704132</v>
+        <v>33.96023439704136</v>
       </c>
       <c r="I35" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J35" t="n">
-        <v>188.0557537362337</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K35" t="n">
-        <v>326.7040326985071</v>
+        <v>257.9185342155184</v>
       </c>
       <c r="L35" t="n">
-        <v>608.9800960373257</v>
+        <v>540.194597554337</v>
       </c>
       <c r="M35" t="n">
-        <v>925.6110150266961</v>
+        <v>856.8255165437074</v>
       </c>
       <c r="N35" t="n">
-        <v>1003.084051789779</v>
+        <v>934.2985533067905</v>
       </c>
       <c r="O35" t="n">
-        <v>1039.33028478068</v>
+        <v>1039.330284780681</v>
       </c>
       <c r="P35" t="n">
-        <v>1259.776067666949</v>
+        <v>1259.77606766695</v>
       </c>
       <c r="Q35" t="n">
         <v>1405.917739996418</v>
       </c>
       <c r="R35" t="n">
-        <v>1447.398231152375</v>
+        <v>1447.398231152376</v>
       </c>
       <c r="S35" t="n">
-        <v>1456.088395684903</v>
+        <v>1456.088395684904</v>
       </c>
       <c r="T35" t="n">
-        <v>1469.557834323943</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="U35" t="n">
         <v>1455.283739767324</v>
       </c>
       <c r="V35" t="n">
-        <v>1369.564985004663</v>
+        <v>1369.564985004664</v>
       </c>
       <c r="W35" t="n">
-        <v>1266.657664366634</v>
+        <v>1266.657664366635</v>
       </c>
       <c r="X35" t="n">
-        <v>1141.643020022606</v>
+        <v>1141.643020022607</v>
       </c>
       <c r="Y35" t="n">
-        <v>993.8982210081297</v>
+        <v>993.89822100813</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>758.1965159427583</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="C36" t="n">
-        <v>568.784241675722</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="D36" t="n">
-        <v>408.0041254367537</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="E36" t="n">
-        <v>234.4409215581682</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="F36" t="n">
-        <v>74.01320527541228</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="G36" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="H36" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="I36" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J36" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K36" t="n">
         <v>68.39317769225946</v>
@@ -7038,28 +7038,28 @@
         <v>795.0919678081414</v>
       </c>
       <c r="R36" t="n">
-        <v>795.0919678081414</v>
+        <v>736.4952326324541</v>
       </c>
       <c r="S36" t="n">
-        <v>795.0919678081414</v>
+        <v>543.091086115737</v>
       </c>
       <c r="T36" t="n">
-        <v>795.0919678081414</v>
+        <v>543.091086115737</v>
       </c>
       <c r="U36" t="n">
-        <v>793.8703257449579</v>
+        <v>303.467205270616</v>
       </c>
       <c r="V36" t="n">
-        <v>789.1928464305295</v>
+        <v>60.38748717425008</v>
       </c>
       <c r="W36" t="n">
-        <v>758.1965159427583</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="X36" t="n">
-        <v>758.1965159427583</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="Y36" t="n">
-        <v>758.1965159427583</v>
+        <v>29.39115668647887</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="C37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="D37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="E37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="F37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="G37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="H37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="I37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J37" t="n">
-        <v>29.39115668647886</v>
+        <v>144.393245137794</v>
       </c>
       <c r="K37" t="n">
-        <v>29.39115668647886</v>
+        <v>144.393245137794</v>
       </c>
       <c r="L37" t="n">
-        <v>29.39115668647886</v>
+        <v>144.393245137794</v>
       </c>
       <c r="M37" t="n">
-        <v>29.39115668647886</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="N37" t="n">
-        <v>29.39115668647886</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="O37" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="P37" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="Q37" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="R37" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="S37" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="T37" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="U37" t="n">
-        <v>93.41468141935661</v>
+        <v>93.41468141935668</v>
       </c>
       <c r="V37" t="n">
-        <v>84.23205637861744</v>
+        <v>84.23205637861749</v>
       </c>
       <c r="W37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="X37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>854.4345604185188</v>
+        <v>854.4345604185177</v>
       </c>
       <c r="C38" t="n">
-        <v>739.093872552801</v>
+        <v>739.0938725527998</v>
       </c>
       <c r="D38" t="n">
-        <v>636.3121116961252</v>
+        <v>636.3121116961238</v>
       </c>
       <c r="E38" t="n">
-        <v>499.4831261733797</v>
+        <v>499.4831261733784</v>
       </c>
       <c r="F38" t="n">
-        <v>330.6133956219702</v>
+        <v>330.6133956219692</v>
       </c>
       <c r="G38" t="n">
-        <v>145.959039081522</v>
+        <v>145.9590390815217</v>
       </c>
       <c r="H38" t="n">
-        <v>33.96023439704126</v>
+        <v>33.96023439704133</v>
       </c>
       <c r="I38" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="J38" t="n">
-        <v>188.0557537362337</v>
+        <v>188.0557537362336</v>
       </c>
       <c r="K38" t="n">
-        <v>416.5831312652734</v>
+        <v>188.0557537362336</v>
       </c>
       <c r="L38" t="n">
-        <v>465.201160373915</v>
+        <v>388.791500446188</v>
       </c>
       <c r="M38" t="n">
-        <v>548.1740451331085</v>
+        <v>705.4224194355584</v>
       </c>
       <c r="N38" t="n">
-        <v>769.4260175596017</v>
+        <v>1016.553490428818</v>
       </c>
       <c r="O38" t="n">
-        <v>1039.33028478068</v>
+        <v>1052.79972341972</v>
       </c>
       <c r="P38" t="n">
-        <v>1259.776067666948</v>
+        <v>1273.245506305988</v>
       </c>
       <c r="Q38" t="n">
-        <v>1405.917739996417</v>
+        <v>1419.387178635457</v>
       </c>
       <c r="R38" t="n">
-        <v>1447.398231152375</v>
+        <v>1460.867669791414</v>
       </c>
       <c r="S38" t="n">
-        <v>1456.088395684903</v>
+        <v>1469.557834323942</v>
       </c>
       <c r="T38" t="n">
-        <v>1469.557834323943</v>
+        <v>1469.557834323942</v>
       </c>
       <c r="U38" t="n">
         <v>1455.283739767324</v>
       </c>
       <c r="V38" t="n">
-        <v>1369.564985004664</v>
+        <v>1369.564985004663</v>
       </c>
       <c r="W38" t="n">
-        <v>1266.657664366635</v>
+        <v>1266.657664366634</v>
       </c>
       <c r="X38" t="n">
-        <v>1141.643020022607</v>
+        <v>1141.643020022606</v>
       </c>
       <c r="Y38" t="n">
-        <v>993.8982210081301</v>
+        <v>993.898221008129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>369.0439431548286</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="C39" t="n">
-        <v>179.6316688877924</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="D39" t="n">
-        <v>179.6316688877924</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="E39" t="n">
-        <v>179.6316688877924</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="F39" t="n">
-        <v>179.6316688877924</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="G39" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="H39" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="I39" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="J39" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="K39" t="n">
-        <v>68.39317769225946</v>
+        <v>68.39317769225943</v>
       </c>
       <c r="L39" t="n">
         <v>187.1227504174777</v>
@@ -7281,22 +7281,22 @@
         <v>795.0919678081414</v>
       </c>
       <c r="T39" t="n">
-        <v>577.9760743306172</v>
+        <v>781.4933248976745</v>
       </c>
       <c r="U39" t="n">
-        <v>576.7544322674338</v>
+        <v>541.8694440525535</v>
       </c>
       <c r="V39" t="n">
-        <v>400.0402736425997</v>
+        <v>298.7897259561875</v>
       </c>
       <c r="W39" t="n">
-        <v>369.0439431548286</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="X39" t="n">
-        <v>369.0439431548286</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="Y39" t="n">
-        <v>369.0439431548286</v>
+        <v>29.39115668647885</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="C40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="D40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="E40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="F40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="G40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="H40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="I40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="J40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="K40" t="n">
-        <v>29.39115668647886</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="L40" t="n">
-        <v>29.39115668647886</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="M40" t="n">
-        <v>29.39115668647886</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="N40" t="n">
-        <v>29.39115668647886</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="O40" t="n">
-        <v>29.39115668647886</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="P40" t="n">
-        <v>29.39115668647886</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="Q40" t="n">
-        <v>114.0795730255626</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="R40" t="n">
-        <v>146.584422282546</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="S40" t="n">
-        <v>146.584422282546</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="T40" t="n">
-        <v>146.584422282546</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="U40" t="n">
-        <v>93.4146814193565</v>
+        <v>93.41468141935665</v>
       </c>
       <c r="V40" t="n">
-        <v>84.23205637861739</v>
+        <v>84.23205637861746</v>
       </c>
       <c r="W40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="X40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
     </row>
     <row r="41">
@@ -7394,52 +7394,52 @@
         <v>636.3121116961245</v>
       </c>
       <c r="E41" t="n">
-        <v>499.483126173379</v>
+        <v>499.4831261733791</v>
       </c>
       <c r="F41" t="n">
-        <v>330.6133956219696</v>
+        <v>330.6133956219697</v>
       </c>
       <c r="G41" t="n">
-        <v>145.9590390815215</v>
+        <v>145.9590390815217</v>
       </c>
       <c r="H41" t="n">
-        <v>33.96023439704132</v>
+        <v>33.96023439704122</v>
       </c>
       <c r="I41" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="J41" t="n">
         <v>188.0557537362337</v>
       </c>
       <c r="K41" t="n">
-        <v>416.5831312652733</v>
+        <v>188.0557537362337</v>
       </c>
       <c r="L41" t="n">
-        <v>608.9800960373257</v>
+        <v>236.6737828448753</v>
       </c>
       <c r="M41" t="n">
-        <v>691.9529807965191</v>
+        <v>458.2949465663407</v>
       </c>
       <c r="N41" t="n">
-        <v>1003.084051789779</v>
+        <v>769.4260175596008</v>
       </c>
       <c r="O41" t="n">
-        <v>1039.33028478068</v>
+        <v>1039.330284780679</v>
       </c>
       <c r="P41" t="n">
-        <v>1259.776067666949</v>
+        <v>1259.776067666947</v>
       </c>
       <c r="Q41" t="n">
-        <v>1405.917739996418</v>
+        <v>1405.917739996416</v>
       </c>
       <c r="R41" t="n">
-        <v>1447.398231152375</v>
+        <v>1447.398231152374</v>
       </c>
       <c r="S41" t="n">
         <v>1456.088395684903</v>
       </c>
       <c r="T41" t="n">
-        <v>1469.557834323943</v>
+        <v>1469.557834323942</v>
       </c>
       <c r="U41" t="n">
         <v>1455.283739767324</v>
@@ -7454,7 +7454,7 @@
         <v>1141.643020022606</v>
       </c>
       <c r="Y41" t="n">
-        <v>993.8982210081297</v>
+        <v>993.8982210081294</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>552.7943511148566</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="C42" t="n">
-        <v>363.3820768478203</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="D42" t="n">
-        <v>363.3820768478203</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="E42" t="n">
-        <v>189.8188729692348</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="F42" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="G42" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="H42" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="I42" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="J42" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="K42" t="n">
-        <v>68.39317769225946</v>
+        <v>68.39317769225943</v>
       </c>
       <c r="L42" t="n">
         <v>187.1227504174777</v>
@@ -7515,25 +7515,25 @@
         <v>795.0919678081414</v>
       </c>
       <c r="S42" t="n">
-        <v>795.0919678081414</v>
+        <v>601.6878212914243</v>
       </c>
       <c r="T42" t="n">
-        <v>795.0919678081414</v>
+        <v>384.5719278139001</v>
       </c>
       <c r="U42" t="n">
-        <v>793.8703257449579</v>
+        <v>303.4672052706159</v>
       </c>
       <c r="V42" t="n">
-        <v>789.1928464305295</v>
+        <v>60.38748717424994</v>
       </c>
       <c r="W42" t="n">
-        <v>758.1965159427583</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="X42" t="n">
-        <v>758.1965159427583</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="Y42" t="n">
-        <v>731.3302040417916</v>
+        <v>29.39115668647885</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="C43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="D43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="E43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="F43" t="n">
-        <v>29.39115668647886</v>
+        <v>114.0795730255624</v>
       </c>
       <c r="G43" t="n">
-        <v>29.39115668647886</v>
+        <v>114.0795730255624</v>
       </c>
       <c r="H43" t="n">
-        <v>29.39115668647886</v>
+        <v>114.0795730255624</v>
       </c>
       <c r="I43" t="n">
-        <v>29.39115668647886</v>
+        <v>114.0795730255624</v>
       </c>
       <c r="J43" t="n">
-        <v>29.39115668647886</v>
+        <v>114.0795730255624</v>
       </c>
       <c r="K43" t="n">
-        <v>29.39115668647886</v>
+        <v>114.0795730255624</v>
       </c>
       <c r="L43" t="n">
-        <v>29.39115668647886</v>
+        <v>114.0795730255624</v>
       </c>
       <c r="M43" t="n">
-        <v>29.39115668647886</v>
+        <v>114.0795730255624</v>
       </c>
       <c r="N43" t="n">
-        <v>29.39115668647886</v>
+        <v>114.0795730255624</v>
       </c>
       <c r="O43" t="n">
-        <v>146.5844222825462</v>
+        <v>114.0795730255624</v>
       </c>
       <c r="P43" t="n">
-        <v>146.5844222825462</v>
+        <v>114.0795730255624</v>
       </c>
       <c r="Q43" t="n">
-        <v>146.5844222825462</v>
+        <v>114.0795730255624</v>
       </c>
       <c r="R43" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825459</v>
       </c>
       <c r="S43" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825459</v>
       </c>
       <c r="T43" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825459</v>
       </c>
       <c r="U43" t="n">
-        <v>93.41468141935661</v>
+        <v>93.41468141935643</v>
       </c>
       <c r="V43" t="n">
-        <v>84.23205637861744</v>
+        <v>84.23205637861734</v>
       </c>
       <c r="W43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="X43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>854.4345604185194</v>
+        <v>854.4345604185182</v>
       </c>
       <c r="C44" t="n">
-        <v>739.0938725528015</v>
+        <v>739.0938725528006</v>
       </c>
       <c r="D44" t="n">
-        <v>636.3121116961256</v>
+        <v>636.3121116961245</v>
       </c>
       <c r="E44" t="n">
-        <v>499.4831261733797</v>
+        <v>499.4831261733788</v>
       </c>
       <c r="F44" t="n">
-        <v>330.6133956219702</v>
+        <v>330.6133956219693</v>
       </c>
       <c r="G44" t="n">
-        <v>145.9590390815216</v>
+        <v>145.9590390815213</v>
       </c>
       <c r="H44" t="n">
-        <v>33.96023439704132</v>
+        <v>33.96023439704128</v>
       </c>
       <c r="I44" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="J44" t="n">
-        <v>93.0459984683302</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="K44" t="n">
-        <v>93.0459984683302</v>
+        <v>257.9185342155185</v>
       </c>
       <c r="L44" t="n">
-        <v>141.6640275769718</v>
+        <v>306.5365633241601</v>
       </c>
       <c r="M44" t="n">
-        <v>458.2949465663423</v>
+        <v>623.1674823135306</v>
       </c>
       <c r="N44" t="n">
-        <v>769.4260175596023</v>
+        <v>929.0371285281097</v>
       </c>
       <c r="O44" t="n">
-        <v>1039.33028478068</v>
+        <v>1198.941395749188</v>
       </c>
       <c r="P44" t="n">
-        <v>1259.776067666949</v>
+        <v>1419.387178635456</v>
       </c>
       <c r="Q44" t="n">
-        <v>1405.917739996418</v>
+        <v>1419.387178635456</v>
       </c>
       <c r="R44" t="n">
-        <v>1447.398231152375</v>
+        <v>1460.867669791414</v>
       </c>
       <c r="S44" t="n">
-        <v>1456.088395684903</v>
+        <v>1469.557834323942</v>
       </c>
       <c r="T44" t="n">
-        <v>1469.557834323943</v>
+        <v>1469.557834323942</v>
       </c>
       <c r="U44" t="n">
-        <v>1455.283739767325</v>
+        <v>1455.283739767324</v>
       </c>
       <c r="V44" t="n">
-        <v>1369.564985004665</v>
+        <v>1369.564985004663</v>
       </c>
       <c r="W44" t="n">
-        <v>1266.657664366636</v>
+        <v>1266.657664366634</v>
       </c>
       <c r="X44" t="n">
-        <v>1141.643020022607</v>
+        <v>1141.643020022606</v>
       </c>
       <c r="Y44" t="n">
-        <v>993.8982210081307</v>
+        <v>993.8982210081296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>529.4716594375845</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="C45" t="n">
-        <v>340.0593851705483</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="D45" t="n">
-        <v>340.0593851705483</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="E45" t="n">
-        <v>340.0593851705483</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="F45" t="n">
-        <v>179.6316688877924</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="G45" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="H45" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="I45" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="J45" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="K45" t="n">
-        <v>68.39317769225946</v>
+        <v>68.39317769225943</v>
       </c>
       <c r="L45" t="n">
         <v>187.1227504174777</v>
@@ -7746,31 +7746,31 @@
         <v>795.0919678081414</v>
       </c>
       <c r="Q45" t="n">
-        <v>788.9908879493465</v>
+        <v>795.0919678081414</v>
       </c>
       <c r="R45" t="n">
-        <v>788.9908879493465</v>
+        <v>795.0919678081414</v>
       </c>
       <c r="S45" t="n">
-        <v>788.9908879493465</v>
+        <v>795.0919678081414</v>
       </c>
       <c r="T45" t="n">
-        <v>744.9029642299028</v>
+        <v>577.9760743306172</v>
       </c>
       <c r="U45" t="n">
-        <v>743.6813221667193</v>
+        <v>576.7544322674337</v>
       </c>
       <c r="V45" t="n">
-        <v>739.0038428522909</v>
+        <v>333.6747141710678</v>
       </c>
       <c r="W45" t="n">
-        <v>708.0075123645197</v>
+        <v>255.0318497511512</v>
       </c>
       <c r="X45" t="n">
-        <v>708.0075123645197</v>
+        <v>255.0318497511512</v>
       </c>
       <c r="Y45" t="n">
-        <v>708.0075123645197</v>
+        <v>29.39115668647885</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="C46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="D46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="E46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="F46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="G46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="H46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="I46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="J46" t="n">
-        <v>38.41963689107286</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="K46" t="n">
-        <v>38.41963689107286</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="L46" t="n">
-        <v>38.41963689107286</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="M46" t="n">
-        <v>38.41963689107286</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="N46" t="n">
-        <v>38.41963689107286</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="O46" t="n">
-        <v>38.41963689107286</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="P46" t="n">
-        <v>38.41963689107286</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="Q46" t="n">
-        <v>146.5844222825462</v>
+        <v>101.9224400137498</v>
       </c>
       <c r="R46" t="n">
-        <v>146.5844222825462</v>
+        <v>134.4272892707332</v>
       </c>
       <c r="S46" t="n">
-        <v>146.5844222825462</v>
+        <v>134.4272892707332</v>
       </c>
       <c r="T46" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825461</v>
       </c>
       <c r="U46" t="n">
-        <v>93.41468141935661</v>
+        <v>93.41468141935654</v>
       </c>
       <c r="V46" t="n">
-        <v>84.23205637861744</v>
+        <v>84.2320563786174</v>
       </c>
       <c r="W46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="X46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647885</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8769,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>131.9774927702312</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
         <v>204.1866771242933</v>
@@ -8778,13 +8778,13 @@
         <v>200.429819980268</v>
       </c>
       <c r="N12" t="n">
-        <v>185.7602653991548</v>
+        <v>142.9779817688207</v>
       </c>
       <c r="O12" t="n">
-        <v>201.0703270079388</v>
+        <v>120.6456351180971</v>
       </c>
       <c r="P12" t="n">
-        <v>120.6533451729849</v>
+        <v>204.464339879241</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9009,19 +9009,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>120.3756824180373</v>
+        <v>204.1866771242933</v>
       </c>
       <c r="M15" t="n">
-        <v>157.6475363499338</v>
+        <v>200.429819980268</v>
       </c>
       <c r="N15" t="n">
         <v>185.7602653991548</v>
       </c>
       <c r="O15" t="n">
-        <v>204.4566298243532</v>
+        <v>161.674346194019</v>
       </c>
       <c r="P15" t="n">
-        <v>204.464339879241</v>
+        <v>120.6533451729849</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,19 +9243,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>131.9774927702312</v>
       </c>
       <c r="L18" t="n">
         <v>204.1866771242933</v>
       </c>
       <c r="M18" t="n">
-        <v>200.429819980268</v>
+        <v>197.0435171638536</v>
       </c>
       <c r="N18" t="n">
         <v>185.7602653991548</v>
       </c>
       <c r="O18" t="n">
-        <v>161.674346194019</v>
+        <v>204.4566298243532</v>
       </c>
       <c r="P18" t="n">
         <v>120.6533451729849</v>
@@ -9480,16 +9480,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>131.9774927702312</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>204.1866771242933</v>
+        <v>161.4043934939592</v>
       </c>
       <c r="M21" t="n">
-        <v>116.6188252740119</v>
+        <v>200.429819980268</v>
       </c>
       <c r="N21" t="n">
-        <v>182.3739625827404</v>
+        <v>101.9492706928988</v>
       </c>
       <c r="O21" t="n">
         <v>204.4566298243532</v>
@@ -9717,13 +9717,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>131.9774927702312</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>120.3756824180373</v>
+        <v>204.1866771242933</v>
       </c>
       <c r="M24" t="n">
-        <v>197.0435171638536</v>
+        <v>116.6188252740119</v>
       </c>
       <c r="N24" t="n">
         <v>185.7602653991548</v>
@@ -9732,7 +9732,7 @@
         <v>204.4566298243532</v>
       </c>
       <c r="P24" t="n">
-        <v>204.464339879241</v>
+        <v>161.6820562489068</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.7647379174871</v>
+        <v>169.7647379174868</v>
       </c>
       <c r="C11" t="n">
-        <v>145.8829949208325</v>
+        <v>145.8829949208323</v>
       </c>
       <c r="D11" t="n">
-        <v>133.449657181881</v>
+        <v>133.4496571818808</v>
       </c>
       <c r="E11" t="n">
-        <v>83.34541489503381</v>
+        <v>167.1564096012896</v>
       </c>
       <c r="F11" t="n">
-        <v>198.8767471796672</v>
+        <v>198.8767471796669</v>
       </c>
       <c r="G11" t="n">
-        <v>214.5035269088154</v>
+        <v>214.5035269088152</v>
       </c>
       <c r="H11" t="n">
-        <v>142.5745305714073</v>
+        <v>142.574530571407</v>
       </c>
       <c r="I11" t="n">
-        <v>36.21910086722868</v>
+        <v>36.21910086722843</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>13.0143337280586</v>
       </c>
       <c r="V11" t="n">
-        <v>116.5572811488057</v>
+        <v>32.74628644254942</v>
       </c>
       <c r="W11" t="n">
-        <v>62.77730038722382</v>
+        <v>49.76296665916431</v>
       </c>
       <c r="X11" t="n">
-        <v>71.64921712810379</v>
+        <v>155.4602118343596</v>
       </c>
       <c r="Y11" t="n">
-        <v>177.9630649581036</v>
+        <v>94.15207025184729</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5227626820734427</v>
+        <v>0.5227626820731869</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.177209922732985</v>
+        <v>2.177209922732729</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>169.764737917487</v>
+        <v>169.7647379174867</v>
       </c>
       <c r="C14" t="n">
-        <v>145.8829949208325</v>
+        <v>145.8829949208322</v>
       </c>
       <c r="D14" t="n">
-        <v>133.4496571818809</v>
+        <v>133.4496571818807</v>
       </c>
       <c r="E14" t="n">
-        <v>167.1564096012898</v>
+        <v>167.1564096012896</v>
       </c>
       <c r="F14" t="n">
-        <v>198.8767471796671</v>
+        <v>198.8767471796669</v>
       </c>
       <c r="G14" t="n">
-        <v>130.6925322025593</v>
+        <v>130.6925322025591</v>
       </c>
       <c r="H14" t="n">
-        <v>58.76353586515113</v>
+        <v>142.574530571407</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>36.21910086722838</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>22.91776996152041</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>116.5572811488057</v>
+        <v>32.74628644254936</v>
       </c>
       <c r="W14" t="n">
-        <v>133.5739613654205</v>
+        <v>49.76296665916423</v>
       </c>
       <c r="X14" t="n">
-        <v>155.4602118343598</v>
+        <v>145.5567756008975</v>
       </c>
       <c r="Y14" t="n">
-        <v>143.3855048471353</v>
+        <v>177.9630649581033</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.5227626820733574</v>
+        <v>0.52276268207313</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.177209922732914</v>
+        <v>2.177209922732686</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.240013155811212e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.766321002440236e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>777423.0455927543</v>
+        <v>777423.0455927545</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>777423.0455927543</v>
+        <v>777423.0455927545</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>771690.4957794021</v>
+        <v>771690.4957794022</v>
       </c>
       <c r="C2" t="n">
-        <v>771690.4957794021</v>
+        <v>771690.4957794022</v>
       </c>
       <c r="D2" t="n">
         <v>771690.4957794021</v>
@@ -26323,16 +26323,16 @@
         <v>664991.3278929192</v>
       </c>
       <c r="F2" t="n">
-        <v>664991.3278929193</v>
+        <v>664991.3278929191</v>
       </c>
       <c r="G2" t="n">
+        <v>773253.7302512182</v>
+      </c>
+      <c r="H2" t="n">
+        <v>773253.7302512182</v>
+      </c>
+      <c r="I2" t="n">
         <v>773253.7302512185</v>
-      </c>
-      <c r="H2" t="n">
-        <v>773253.7302512185</v>
-      </c>
-      <c r="I2" t="n">
-        <v>773253.7302512183</v>
       </c>
       <c r="J2" t="n">
         <v>773253.7302512188</v>
@@ -26341,19 +26341,19 @@
         <v>773253.7302512188</v>
       </c>
       <c r="L2" t="n">
-        <v>773253.7302512187</v>
+        <v>773253.7302512188</v>
       </c>
       <c r="M2" t="n">
-        <v>773253.7302512195</v>
+        <v>773253.7302512194</v>
       </c>
       <c r="N2" t="n">
         <v>773253.7302512192</v>
       </c>
       <c r="O2" t="n">
-        <v>773253.7302512192</v>
+        <v>773253.7302512189</v>
       </c>
       <c r="P2" t="n">
-        <v>773253.7302512195</v>
+        <v>773253.7302512194</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272190.3692365909</v>
+        <v>272190.369236591</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>105116.1707346581</v>
+        <v>105116.1707346579</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161283.0021054358</v>
+        <v>161283.0021054359</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>105116.1707346581</v>
+        <v>105116.1707346579</v>
       </c>
       <c r="M3" t="n">
-        <v>18540.64777616411</v>
+        <v>18540.64777616406</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65157.75460447225</v>
+        <v>65157.75460447253</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>493696.1728711353</v>
       </c>
       <c r="E4" t="n">
-        <v>388252.7260600599</v>
+        <v>388252.7260600601</v>
       </c>
       <c r="F4" t="n">
-        <v>388252.72606006</v>
+        <v>388252.7260600601</v>
       </c>
       <c r="G4" t="n">
         <v>458781.7794468557</v>
@@ -26442,10 +26442,10 @@
         <v>459727.7067886268</v>
       </c>
       <c r="K4" t="n">
-        <v>459727.7067886267</v>
+        <v>459727.7067886268</v>
       </c>
       <c r="L4" t="n">
-        <v>459727.7067886268</v>
+        <v>459727.7067886269</v>
       </c>
       <c r="M4" t="n">
         <v>459351.4258455442</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24544.28478191324</v>
+        <v>24544.28478191326</v>
       </c>
       <c r="F5" t="n">
-        <v>24544.28478191324</v>
+        <v>24544.28478191327</v>
       </c>
       <c r="G5" t="n">
         <v>35590.54897877821</v>
@@ -26491,25 +26491,25 @@
         <v>35590.54897877821</v>
       </c>
       <c r="J5" t="n">
+        <v>47597.82369096751</v>
+      </c>
+      <c r="K5" t="n">
         <v>47597.82369096752</v>
       </c>
-      <c r="K5" t="n">
-        <v>47597.8236909675</v>
-      </c>
       <c r="L5" t="n">
-        <v>47597.82369096751</v>
+        <v>47597.82369096752</v>
       </c>
       <c r="M5" t="n">
-        <v>44450.48236019507</v>
+        <v>44450.48236019508</v>
       </c>
       <c r="N5" t="n">
-        <v>44450.48236019508</v>
+        <v>44450.48236019506</v>
       </c>
       <c r="O5" t="n">
-        <v>44450.48236019507</v>
+        <v>44450.48236019506</v>
       </c>
       <c r="P5" t="n">
-        <v>44450.48236019507</v>
+        <v>44450.48236019506</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>244366.7229082668</v>
+        <v>244362.2565240617</v>
       </c>
       <c r="C6" t="n">
-        <v>244366.7229082668</v>
+        <v>244362.2565240617</v>
       </c>
       <c r="D6" t="n">
-        <v>244366.7229082668</v>
+        <v>244362.2565240616</v>
       </c>
       <c r="E6" t="n">
-        <v>-19996.05218564482</v>
+        <v>-20305.37333524034</v>
       </c>
       <c r="F6" t="n">
-        <v>252194.317050946</v>
+        <v>251884.9959013505</v>
       </c>
       <c r="G6" t="n">
-        <v>173765.2310909267</v>
+        <v>173765.2310909264</v>
       </c>
       <c r="H6" t="n">
-        <v>278881.4018255847</v>
+        <v>278881.4018255844</v>
       </c>
       <c r="I6" t="n">
-        <v>278881.4018255845</v>
+        <v>278881.4018255846</v>
       </c>
       <c r="J6" t="n">
-        <v>104645.1976661887</v>
+        <v>104645.1976661885</v>
       </c>
       <c r="K6" t="n">
         <v>265928.1997716245</v>
       </c>
       <c r="L6" t="n">
-        <v>160812.0290369662</v>
+        <v>160812.0290369664</v>
       </c>
       <c r="M6" t="n">
-        <v>250911.1742693161</v>
+        <v>250911.174269316</v>
       </c>
       <c r="N6" t="n">
         <v>269451.82204548</v>
       </c>
       <c r="O6" t="n">
-        <v>204294.0674410078</v>
+        <v>204294.0674410071</v>
       </c>
       <c r="P6" t="n">
-        <v>269451.8220454802</v>
+        <v>269451.8220454801</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="F2" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="G2" t="n">
-        <v>335.7177158786689</v>
+        <v>335.717715878669</v>
       </c>
       <c r="H2" t="n">
         <v>335.7177158786689</v>
@@ -26707,10 +26707,10 @@
         <v>335.7177158786689</v>
       </c>
       <c r="J2" t="n">
+        <v>212.8424066739129</v>
+      </c>
+      <c r="K2" t="n">
         <v>212.842406673913</v>
-      </c>
-      <c r="K2" t="n">
-        <v>212.8424066739129</v>
       </c>
       <c r="L2" t="n">
         <v>212.842406673913</v>
@@ -26719,13 +26719,13 @@
         <v>236.0182163941181</v>
       </c>
       <c r="N2" t="n">
+        <v>236.0182163941181</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.0182163941182</v>
       </c>
-      <c r="O2" t="n">
-        <v>236.0182163941181</v>
-      </c>
       <c r="P2" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
     </row>
     <row r="3">
@@ -26811,25 +26811,25 @@
         <v>83.81099470625607</v>
       </c>
       <c r="J4" t="n">
-        <v>451.2004532872418</v>
+        <v>451.2004532872419</v>
       </c>
       <c r="K4" t="n">
-        <v>451.2004532872418</v>
+        <v>451.2004532872419</v>
       </c>
       <c r="L4" t="n">
-        <v>451.2004532872418</v>
+        <v>451.2004532872419</v>
       </c>
       <c r="M4" t="n">
-        <v>367.3894585809858</v>
+        <v>367.3894585809859</v>
       </c>
       <c r="N4" t="n">
-        <v>367.3894585809858</v>
+        <v>367.3894585809856</v>
       </c>
       <c r="O4" t="n">
-        <v>367.3894585809858</v>
+        <v>367.3894585809856</v>
       </c>
       <c r="P4" t="n">
-        <v>367.3894585809858</v>
+        <v>367.3894585809856</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>131.3952134183226</v>
+        <v>131.3952134183224</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.44719325559038</v>
+        <v>81.44719325559055</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3952134183226</v>
+        <v>131.3952134183224</v>
       </c>
       <c r="M2" t="n">
-        <v>23.17580972020514</v>
+        <v>23.17580972020508</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.44719325559032</v>
+        <v>81.44719325559066</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3952134183226</v>
+        <v>131.3952134183224</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.44719325559038</v>
+        <v>81.44719325559055</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="3">
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="C11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="D11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="E11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="F11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="G11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="H11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="I11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="J11" t="n">
         <v>75.75094664689104</v>
       </c>
       <c r="K11" t="n">
-        <v>79.04832117809954</v>
+        <v>5.182481516300363</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>5.555402016273121</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.34570842819046</v>
+        <v>91.85991815606317</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.40036555627083</v>
+        <v>88.40036555627084</v>
       </c>
       <c r="R11" t="n">
-        <v>204.3225024603463</v>
+        <v>194.1187303779996</v>
       </c>
       <c r="S11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="T11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="U11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="V11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="W11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="X11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
     </row>
     <row r="12">
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.040069060206903</v>
       </c>
       <c r="R12" t="n">
-        <v>50.50539762562205</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S12" t="n">
-        <v>191.47010505155</v>
+        <v>107.6591103452939</v>
       </c>
       <c r="T12" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="U12" t="n">
-        <v>204.3225024603463</v>
+        <v>153.4166473304137</v>
       </c>
       <c r="V12" t="n">
-        <v>204.3225024603463</v>
+        <v>188.0737109237465</v>
       </c>
       <c r="W12" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="X12" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="Y12" t="n">
-        <v>143.2079248540218</v>
+        <v>204.3225024603465</v>
       </c>
     </row>
     <row r="13">
@@ -28254,34 +28254,34 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>204.3225024603463</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6953277291724</v>
+        <v>190.0406858368254</v>
       </c>
       <c r="H13" t="n">
         <v>165.7759671126257</v>
       </c>
       <c r="I13" t="n">
-        <v>164.6891559687103</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="J13" t="n">
-        <v>203.665485391975</v>
+        <v>119.854490685719</v>
       </c>
       <c r="K13" t="n">
         <v>66.3971147738707</v>
       </c>
       <c r="L13" t="n">
-        <v>102.4567468541887</v>
+        <v>115.1529611747455</v>
       </c>
       <c r="M13" t="n">
-        <v>24.36299235552879</v>
+        <v>108.1739870617849</v>
       </c>
       <c r="N13" t="n">
-        <v>15.6865875183878</v>
+        <v>15.68658751838781</v>
       </c>
       <c r="O13" t="n">
         <v>36.70894732328664</v>
@@ -28290,31 +28290,31 @@
         <v>57.81978506455187</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.3225024603463</v>
+        <v>126.760857412832</v>
       </c>
       <c r="R13" t="n">
-        <v>203.1850353264581</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="S13" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="T13" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="U13" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="V13" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="W13" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="X13" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603465</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="C14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="D14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="E14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="F14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="G14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="H14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="I14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="J14" t="n">
-        <v>75.75094664689104</v>
+        <v>159.5619413531471</v>
       </c>
       <c r="K14" t="n">
-        <v>5.182481516300356</v>
+        <v>5.441098554190148</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.6043254660802</v>
+        <v>13.34570842819047</v>
       </c>
       <c r="Q14" t="n">
-        <v>172.2113602625269</v>
+        <v>88.40036555627084</v>
       </c>
       <c r="R14" t="n">
         <v>194.1187303779996</v>
       </c>
       <c r="S14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="T14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="U14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="V14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="W14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="X14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
     </row>
     <row r="15">
@@ -28427,7 +28427,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.86130901229092</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.0400690602069</v>
+        <v>6.040069060206903</v>
       </c>
       <c r="R15" t="n">
         <v>50.50539762562205</v>
       </c>
       <c r="S15" t="n">
-        <v>191.47010505155</v>
+        <v>175.2213135149496</v>
       </c>
       <c r="T15" t="n">
-        <v>189.0291648061054</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="U15" t="n">
-        <v>204.3225024603464</v>
+        <v>153.4166473304137</v>
       </c>
       <c r="V15" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="W15" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="X15" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
     </row>
     <row r="16">
@@ -28482,13 +28482,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28509,49 +28509,49 @@
         <v>119.854490685719</v>
       </c>
       <c r="K16" t="n">
-        <v>150.2081094801268</v>
+        <v>66.3971147738707</v>
       </c>
       <c r="L16" t="n">
-        <v>31.3419664684894</v>
+        <v>115.1529611747455</v>
       </c>
       <c r="M16" t="n">
-        <v>24.36299235552879</v>
+        <v>108.1739870617849</v>
       </c>
       <c r="N16" t="n">
-        <v>15.6865875183878</v>
+        <v>15.68658751838781</v>
       </c>
       <c r="O16" t="n">
-        <v>36.70894732328664</v>
+        <v>77.23783815946112</v>
       </c>
       <c r="P16" t="n">
-        <v>104.5980255594698</v>
+        <v>57.81978506455187</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.3225024603464</v>
+        <v>126.760857412832</v>
       </c>
       <c r="R16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="S16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="T16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="U16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="V16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="W16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="X16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603466</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.7177158786689</v>
+        <v>335.717715878669</v>
       </c>
       <c r="C17" t="n">
-        <v>335.7177158786689</v>
+        <v>335.717715878669</v>
       </c>
       <c r="D17" t="n">
-        <v>335.7177158786689</v>
+        <v>335.717715878669</v>
       </c>
       <c r="E17" t="n">
-        <v>335.7177158786689</v>
+        <v>335.717715878669</v>
       </c>
       <c r="F17" t="n">
-        <v>335.7177158786689</v>
+        <v>335.717715878669</v>
       </c>
       <c r="G17" t="n">
-        <v>335.7177158786689</v>
+        <v>335.717715878669</v>
       </c>
       <c r="H17" t="n">
-        <v>335.7177158786689</v>
+        <v>335.717715878669</v>
       </c>
       <c r="I17" t="n">
         <v>240.541603327575</v>
@@ -28588,10 +28588,10 @@
         <v>75.75094664689104</v>
       </c>
       <c r="K17" t="n">
-        <v>5.182481516300356</v>
+        <v>5.182481516300363</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.2586170378897847</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28603,13 +28603,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.34570842819046</v>
+        <v>13.34570842819047</v>
       </c>
       <c r="Q17" t="n">
-        <v>157.6320450308997</v>
+        <v>88.40036555627084</v>
       </c>
       <c r="R17" t="n">
-        <v>194.1187303779996</v>
+        <v>277.9297250842557</v>
       </c>
       <c r="S17" t="n">
         <v>227.240272421867</v>
@@ -28621,16 +28621,16 @@
         <v>250.1495700051708</v>
       </c>
       <c r="V17" t="n">
-        <v>335.7177158786689</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>335.7177158786689</v>
+        <v>335.717715878669</v>
       </c>
       <c r="X17" t="n">
-        <v>335.7177158786689</v>
+        <v>335.717715878669</v>
       </c>
       <c r="Y17" t="n">
-        <v>335.7177158786689</v>
+        <v>335.717715878669</v>
       </c>
     </row>
     <row r="18">
@@ -28646,7 +28646,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>75.36132037032247</v>
+        <v>91.39165999951507</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28661,10 +28661,10 @@
         <v>125.6727734256474</v>
       </c>
       <c r="I18" t="n">
-        <v>23.32871145653488</v>
+        <v>107.1397061627909</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.86130901229092</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.50539762562205</v>
+        <v>50.50539762562206</v>
       </c>
       <c r="S18" t="n">
-        <v>175.5507589867774</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T18" t="n">
         <v>214.9447345427489</v>
@@ -28703,10 +28703,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>182.8935888707555</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>133.5019197332145</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28749,13 +28749,13 @@
         <v>66.3971147738707</v>
       </c>
       <c r="L19" t="n">
-        <v>31.3419664684894</v>
+        <v>31.34196646848941</v>
       </c>
       <c r="M19" t="n">
         <v>24.36299235552879</v>
       </c>
       <c r="N19" t="n">
-        <v>15.6865875183878</v>
+        <v>15.68658751838781</v>
       </c>
       <c r="O19" t="n">
         <v>36.70894732328664</v>
@@ -28825,10 +28825,10 @@
         <v>75.75094664689104</v>
       </c>
       <c r="K20" t="n">
-        <v>5.182481516300356</v>
+        <v>5.182481516300363</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.2586170378897847</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28840,13 +28840,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.34570842819046</v>
+        <v>13.34570842819047</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.40036555627083</v>
+        <v>88.40036555627084</v>
       </c>
       <c r="R20" t="n">
-        <v>194.3773474158893</v>
+        <v>194.1187303779996</v>
       </c>
       <c r="S20" t="n">
         <v>311.0512671281231</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>92.93949969140967</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -28898,10 +28898,10 @@
         <v>125.6727734256474</v>
       </c>
       <c r="I21" t="n">
-        <v>23.32871145653488</v>
+        <v>107.1397061627909</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.86130901229092</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,22 +28928,22 @@
         <v>50.50539762562205</v>
       </c>
       <c r="S21" t="n">
-        <v>107.6591103452939</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0253884779764</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U21" t="n">
         <v>237.2276420366697</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>172.8682658383388</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>133.5019197332145</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28986,13 +28986,13 @@
         <v>66.3971147738707</v>
       </c>
       <c r="L22" t="n">
-        <v>31.3419664684894</v>
+        <v>31.34196646848941</v>
       </c>
       <c r="M22" t="n">
         <v>24.36299235552879</v>
       </c>
       <c r="N22" t="n">
-        <v>15.6865875183878</v>
+        <v>15.68658751838781</v>
       </c>
       <c r="O22" t="n">
         <v>36.70894732328664</v>
@@ -29062,7 +29062,7 @@
         <v>75.75094664689104</v>
       </c>
       <c r="K23" t="n">
-        <v>5.182481516300356</v>
+        <v>5.182481516300363</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,16 +29071,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>0.2586170378897634</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.34570842819046</v>
+        <v>13.34570842819047</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.40036555627083</v>
+        <v>88.40036555627084</v>
       </c>
       <c r="R23" t="n">
         <v>194.1187303779996</v>
@@ -29089,10 +29089,10 @@
         <v>227.240272421867</v>
       </c>
       <c r="T23" t="n">
-        <v>306.2237175255867</v>
+        <v>222.4127228193306</v>
       </c>
       <c r="U23" t="n">
-        <v>250.4081870430605</v>
+        <v>333.9605647114269</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -29114,16 +29114,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>102.9297702603954</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>103.7071568181099</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>75.36132037032247</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>88.01657713354361</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29159,19 +29159,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.0400690602069</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3163923318781</v>
+        <v>50.50539762562205</v>
       </c>
       <c r="S24" t="n">
-        <v>191.47010505155</v>
+        <v>107.6591103452939</v>
       </c>
       <c r="T24" t="n">
         <v>214.9447345427489</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276420366697</v>
+        <v>153.4166473304137</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29180,7 +29180,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>149.5322593624071</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29223,13 +29223,13 @@
         <v>66.3971147738707</v>
       </c>
       <c r="L25" t="n">
-        <v>31.3419664684894</v>
+        <v>31.34196646848941</v>
       </c>
       <c r="M25" t="n">
         <v>24.36299235552879</v>
       </c>
       <c r="N25" t="n">
-        <v>15.6865875183878</v>
+        <v>15.68658751838781</v>
       </c>
       <c r="O25" t="n">
         <v>36.70894732328664</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="C26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="D26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="E26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="F26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="G26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="H26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="I26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="J26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="K26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="L26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8424066739121</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="N26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="O26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="P26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739135</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="R26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="S26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="T26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="U26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="V26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="W26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="X26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
     </row>
     <row r="27">
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.0400690602069</v>
+        <v>6.040069060206903</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3163923318781</v>
+        <v>116.5961493226593</v>
       </c>
       <c r="S27" t="n">
-        <v>191.47010505155</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="U27" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="V27" t="n">
-        <v>212.842406673913</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>101.408206263928</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="X27" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.842406673913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29451,22 +29451,22 @@
         <v>165.7759671126257</v>
       </c>
       <c r="I28" t="n">
-        <v>212.842406673913</v>
+        <v>164.6891559687103</v>
       </c>
       <c r="J28" t="n">
         <v>119.854490685719</v>
       </c>
       <c r="K28" t="n">
-        <v>212.842406673913</v>
+        <v>66.3971147738707</v>
       </c>
       <c r="L28" t="n">
-        <v>31.3419664684894</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="M28" t="n">
-        <v>66.80277466388149</v>
+        <v>24.36299235552879</v>
       </c>
       <c r="N28" t="n">
-        <v>15.6865875183878</v>
+        <v>15.68658751838781</v>
       </c>
       <c r="O28" t="n">
         <v>36.70894732328664</v>
@@ -29475,31 +29475,31 @@
         <v>57.81978506455187</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.760857412832</v>
+        <v>182.2987421210068</v>
       </c>
       <c r="R28" t="n">
         <v>203.1850353264581</v>
       </c>
       <c r="S28" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="T28" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="U28" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="V28" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="W28" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="X28" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
     </row>
     <row r="30">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>101.8765386687749</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.0400690602069</v>
+        <v>6.040069060206903</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3163923318781</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.47010505155</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>212.842406673913</v>
       </c>
       <c r="V30" t="n">
-        <v>180.4025530108098</v>
+        <v>212.842406673913</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.8424066739129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29697,19 +29697,19 @@
         <v>66.3971147738707</v>
       </c>
       <c r="L31" t="n">
-        <v>31.3419664684894</v>
+        <v>31.34196646848941</v>
       </c>
       <c r="M31" t="n">
         <v>24.36299235552879</v>
       </c>
       <c r="N31" t="n">
-        <v>15.6865875183878</v>
+        <v>15.68658751838781</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8424066739129</v>
+        <v>118.7246506275237</v>
       </c>
       <c r="P31" t="n">
-        <v>118.7246506275239</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Q31" t="n">
         <v>126.760857412832</v>
@@ -29718,25 +29718,25 @@
         <v>203.1850353264581</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
     </row>
     <row r="32">
@@ -29779,7 +29779,7 @@
         <v>212.842406673913</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8424066739123</v>
+        <v>212.842406673913</v>
       </c>
       <c r="N32" t="n">
         <v>212.842406673913</v>
@@ -29791,7 +29791,7 @@
         <v>212.842406673913</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739126</v>
       </c>
       <c r="R32" t="n">
         <v>212.842406673913</v>
@@ -29825,16 +29825,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>60.39337142981485</v>
+        <v>102.9936851711157</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29870,19 +29870,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.0400690602069</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3163923318781</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.47010505155</v>
       </c>
       <c r="T33" t="n">
-        <v>212.842406673913</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>212.842406673913</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>212.842406673913</v>
@@ -29907,13 +29907,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>212.842406673913</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>212.842406673913</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
@@ -29922,28 +29922,28 @@
         <v>168.6953277291724</v>
       </c>
       <c r="H34" t="n">
-        <v>212.842406673913</v>
+        <v>165.7759671126257</v>
       </c>
       <c r="I34" t="n">
-        <v>212.842406673913</v>
+        <v>164.6891559687103</v>
       </c>
       <c r="J34" t="n">
-        <v>190.5068598711389</v>
+        <v>119.854490685719</v>
       </c>
       <c r="K34" t="n">
         <v>66.3971147738707</v>
       </c>
       <c r="L34" t="n">
-        <v>31.3419664684894</v>
+        <v>212.842406673913</v>
       </c>
       <c r="M34" t="n">
         <v>24.36299235552879</v>
       </c>
       <c r="N34" t="n">
-        <v>15.6865875183878</v>
+        <v>15.68658751838781</v>
       </c>
       <c r="O34" t="n">
-        <v>36.70894732328664</v>
+        <v>45.86160632952016</v>
       </c>
       <c r="P34" t="n">
         <v>57.81978506455187</v>
@@ -30007,10 +30007,10 @@
         <v>236.0182163941181</v>
       </c>
       <c r="J35" t="n">
+        <v>75.75094664689104</v>
+      </c>
+      <c r="K35" t="n">
         <v>236.0182163941181</v>
-      </c>
-      <c r="K35" t="n">
-        <v>145.2312481448594</v>
       </c>
       <c r="L35" t="n">
         <v>236.0182163941181</v>
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>69.48030149796931</v>
       </c>
       <c r="P35" t="n">
         <v>236.0182163941181</v>
@@ -30065,19 +30065,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>104.5622789762563</v>
+        <v>148.7381070793004</v>
       </c>
       <c r="H36" t="n">
         <v>125.6727734256474</v>
@@ -30107,22 +30107,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.0400690602069</v>
+        <v>6.040069060206903</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3163923318781</v>
+        <v>76.30562450794771</v>
       </c>
       <c r="S36" t="n">
-        <v>191.47010505155</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9447345427489</v>
       </c>
       <c r="U36" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>236.0182163941181</v>
@@ -30165,22 +30165,22 @@
         <v>164.6891559687103</v>
       </c>
       <c r="J37" t="n">
-        <v>119.854490685719</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="K37" t="n">
         <v>66.3971147738707</v>
       </c>
       <c r="L37" t="n">
-        <v>31.3419664684894</v>
+        <v>31.34196646848941</v>
       </c>
       <c r="M37" t="n">
-        <v>24.36299235552879</v>
+        <v>26.5763026027533</v>
       </c>
       <c r="N37" t="n">
-        <v>15.6865875183878</v>
+        <v>15.68658751838781</v>
       </c>
       <c r="O37" t="n">
-        <v>155.0859832789102</v>
+        <v>36.70894732328664</v>
       </c>
       <c r="P37" t="n">
         <v>57.81978506455187</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="C38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="D38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="E38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="F38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="G38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="H38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="I38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="J38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="K38" t="n">
-        <v>236.0182163941182</v>
+        <v>5.182481516300363</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>153.6542602033462</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="N38" t="n">
-        <v>145.2312481448587</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="O38" t="n">
-        <v>236.0182163941182</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="R38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="S38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="T38" t="n">
-        <v>236.0182163941182</v>
+        <v>222.4127228193306</v>
       </c>
       <c r="U38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="V38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="W38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="X38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
     </row>
     <row r="39">
@@ -30302,7 +30302,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30314,7 +30314,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7381070793004</v>
       </c>
       <c r="H39" t="n">
         <v>125.6727734256474</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.0400690602069</v>
+        <v>6.040069060206903</v>
       </c>
       <c r="R39" t="n">
         <v>134.3163923318781</v>
@@ -30353,16 +30353,16 @@
         <v>191.47010505155</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>201.4820780613867</v>
       </c>
       <c r="U39" t="n">
-        <v>236.0182163941182</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>65.70190387681654</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>236.0182163941182</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30405,16 +30405,16 @@
         <v>119.854490685719</v>
       </c>
       <c r="K40" t="n">
-        <v>66.3971147738707</v>
+        <v>184.7741507294943</v>
       </c>
       <c r="L40" t="n">
-        <v>31.3419664684894</v>
+        <v>31.34196646848941</v>
       </c>
       <c r="M40" t="n">
         <v>24.36299235552879</v>
       </c>
       <c r="N40" t="n">
-        <v>15.6865875183878</v>
+        <v>15.68658751838781</v>
       </c>
       <c r="O40" t="n">
         <v>36.70894732328664</v>
@@ -30423,10 +30423,10 @@
         <v>57.81978506455187</v>
       </c>
       <c r="Q40" t="n">
-        <v>212.3047123007953</v>
+        <v>126.760857412832</v>
       </c>
       <c r="R40" t="n">
-        <v>236.0182163941182</v>
+        <v>203.1850353264581</v>
       </c>
       <c r="S40" t="n">
         <v>235.3431145613827</v>
@@ -30435,13 +30435,13 @@
         <v>223.7382840589537</v>
       </c>
       <c r="U40" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="V40" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="W40" t="n">
-        <v>236.0182163941182</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="C41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="D41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="E41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="F41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="G41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="H41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="I41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="J41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="K41" t="n">
-        <v>236.0182163941181</v>
+        <v>5.182481516300363</v>
       </c>
       <c r="L41" t="n">
-        <v>145.2312481448594</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>140.0487666285574</v>
       </c>
       <c r="N41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="P41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="R41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="S41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="T41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="U41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="V41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="W41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="X41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
     </row>
     <row r="42">
@@ -30536,19 +30536,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7381070793004</v>
@@ -30581,31 +30581,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.0400690602069</v>
+        <v>6.040069060206903</v>
       </c>
       <c r="R42" t="n">
         <v>134.3163923318781</v>
       </c>
       <c r="S42" t="n">
-        <v>191.47010505155</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9447345427489</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>236.0182163941181</v>
+        <v>156.9339667188184</v>
       </c>
       <c r="V42" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>196.7866373520686</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30627,7 +30627,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>224.4707371064098</v>
       </c>
       <c r="G43" t="n">
         <v>168.6953277291724</v>
@@ -30645,16 +30645,16 @@
         <v>66.3971147738707</v>
       </c>
       <c r="L43" t="n">
-        <v>31.3419664684894</v>
+        <v>31.34196646848941</v>
       </c>
       <c r="M43" t="n">
         <v>24.36299235552879</v>
       </c>
       <c r="N43" t="n">
-        <v>15.6865875183878</v>
+        <v>15.68658751838781</v>
       </c>
       <c r="O43" t="n">
-        <v>155.0859832789102</v>
+        <v>36.70894732328664</v>
       </c>
       <c r="P43" t="n">
         <v>57.81978506455187</v>
@@ -30663,7 +30663,7 @@
         <v>126.760857412832</v>
       </c>
       <c r="R43" t="n">
-        <v>203.1850353264581</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="S43" t="n">
         <v>235.3431145613827</v>
@@ -30672,13 +30672,13 @@
         <v>223.7382840589537</v>
       </c>
       <c r="U43" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="V43" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="W43" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="C44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="D44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="E44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="F44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="G44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="H44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="I44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="J44" t="n">
-        <v>140.0487666285591</v>
+        <v>75.75094664689104</v>
       </c>
       <c r="K44" t="n">
-        <v>5.182481516300356</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="N44" t="n">
-        <v>236.0182163941181</v>
+        <v>230.703645910602</v>
       </c>
       <c r="O44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="P44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.0182163941181</v>
+        <v>88.40036555627084</v>
       </c>
       <c r="R44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="S44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="T44" t="n">
-        <v>236.0182163941181</v>
+        <v>222.4127228193306</v>
       </c>
       <c r="U44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="V44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="W44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="X44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
     </row>
     <row r="45">
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30785,10 +30785,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7381070793004</v>
       </c>
       <c r="H45" t="n">
         <v>125.6727734256474</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.040069060206903</v>
       </c>
       <c r="R45" t="n">
         <v>134.3163923318781</v>
@@ -30827,22 +30827,22 @@
         <v>191.47010505155</v>
       </c>
       <c r="T45" t="n">
-        <v>171.2976900604996</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="V45" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>236.0182163941181</v>
+        <v>188.8481478012942</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30876,19 +30876,19 @@
         <v>164.6891559687103</v>
       </c>
       <c r="J46" t="n">
-        <v>128.9741676600563</v>
+        <v>119.854490685719</v>
       </c>
       <c r="K46" t="n">
         <v>66.3971147738707</v>
       </c>
       <c r="L46" t="n">
-        <v>31.3419664684894</v>
+        <v>31.34196646848941</v>
       </c>
       <c r="M46" t="n">
         <v>24.36299235552879</v>
       </c>
       <c r="N46" t="n">
-        <v>15.6865875183878</v>
+        <v>15.68658751838781</v>
       </c>
       <c r="O46" t="n">
         <v>36.70894732328664</v>
@@ -30897,25 +30897,25 @@
         <v>57.81978506455187</v>
       </c>
       <c r="Q46" t="n">
-        <v>236.0182163941181</v>
+        <v>200.0247799656309</v>
       </c>
       <c r="R46" t="n">
-        <v>203.1850353264581</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="S46" t="n">
         <v>235.3431145613827</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7382840589537</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="U46" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="V46" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="W46" t="n">
-        <v>236.0182163941181</v>
+        <v>236.0182163941182</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -31753,7 +31753,7 @@
         <v>0.4188627254500054</v>
       </c>
       <c r="H11" t="n">
-        <v>4.289677887014869</v>
+        <v>4.289677887014868</v>
       </c>
       <c r="I11" t="n">
         <v>16.14820522291135</v>
@@ -31762,7 +31762,7 @@
         <v>35.55045024416243</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28090941246117</v>
+        <v>53.28090941246116</v>
       </c>
       <c r="L11" t="n">
         <v>66.09967954645178</v>
@@ -31774,7 +31774,7 @@
         <v>74.73872325885814</v>
       </c>
       <c r="O11" t="n">
-        <v>70.57365703266466</v>
+        <v>70.57365703266464</v>
       </c>
       <c r="P11" t="n">
         <v>60.23298349811763</v>
@@ -31783,16 +31783,16 @@
         <v>45.2324621429393</v>
       </c>
       <c r="R11" t="n">
-        <v>26.31138567754893</v>
+        <v>26.31138567754892</v>
       </c>
       <c r="S11" t="n">
         <v>9.544834356192007</v>
       </c>
       <c r="T11" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657399</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03350901803600043</v>
+        <v>0.03350901803600042</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31829,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.2241113157914818</v>
       </c>
       <c r="H12" t="n">
-        <v>2.164443497249312</v>
+        <v>2.164443497249311</v>
       </c>
       <c r="I12" t="n">
-        <v>7.716113284926021</v>
+        <v>7.71611328492602</v>
       </c>
       <c r="J12" t="n">
         <v>21.1736046204575</v>
       </c>
       <c r="K12" t="n">
-        <v>36.18906277848679</v>
+        <v>36.18906277848678</v>
       </c>
       <c r="L12" t="n">
         <v>48.66066091340925</v>
@@ -31853,25 +31853,25 @@
         <v>58.2876180487679</v>
       </c>
       <c r="O12" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412506</v>
       </c>
       <c r="P12" t="n">
-        <v>42.79543187249797</v>
+        <v>42.79543187249796</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.60761287190916</v>
+        <v>28.60761287190915</v>
       </c>
       <c r="R12" t="n">
         <v>13.91456046642201</v>
       </c>
       <c r="S12" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390021</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9033258737384725</v>
+        <v>0.9033258737384724</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0147441655125975</v>
+        <v>0.01474416551259749</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,16 +31914,16 @@
         <v>1.670489781814161</v>
       </c>
       <c r="I13" t="n">
-        <v>5.650286501269164</v>
+        <v>5.650286501269163</v>
       </c>
       <c r="J13" t="n">
         <v>13.28363909321955</v>
       </c>
       <c r="K13" t="n">
-        <v>21.82909960284761</v>
+        <v>21.8290996028476</v>
       </c>
       <c r="L13" t="n">
-        <v>27.93373199569405</v>
+        <v>27.93373199569404</v>
       </c>
       <c r="M13" t="n">
         <v>29.45220379122858</v>
@@ -31941,16 +31941,16 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R13" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718642</v>
       </c>
       <c r="S13" t="n">
         <v>3.27436494042714</v>
       </c>
       <c r="T13" t="n">
-        <v>0.802791612937275</v>
+        <v>0.8027916129372749</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941203</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>0.4188627254500054</v>
       </c>
       <c r="H14" t="n">
-        <v>4.289677887014869</v>
+        <v>4.289677887014868</v>
       </c>
       <c r="I14" t="n">
         <v>16.14820522291135</v>
@@ -31999,7 +31999,7 @@
         <v>35.55045024416243</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28090941246117</v>
+        <v>53.28090941246116</v>
       </c>
       <c r="L14" t="n">
         <v>66.09967954645178</v>
@@ -32011,7 +32011,7 @@
         <v>74.73872325885814</v>
       </c>
       <c r="O14" t="n">
-        <v>70.57365703266466</v>
+        <v>70.57365703266464</v>
       </c>
       <c r="P14" t="n">
         <v>60.23298349811763</v>
@@ -32020,16 +32020,16 @@
         <v>45.2324621429393</v>
       </c>
       <c r="R14" t="n">
-        <v>26.31138567754893</v>
+        <v>26.31138567754892</v>
       </c>
       <c r="S14" t="n">
         <v>9.544834356192007</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657399</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03350901803600043</v>
+        <v>0.03350901803600042</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32066,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.2241113157914818</v>
       </c>
       <c r="H15" t="n">
-        <v>2.164443497249312</v>
+        <v>2.164443497249311</v>
       </c>
       <c r="I15" t="n">
-        <v>7.716113284926021</v>
+        <v>7.71611328492602</v>
       </c>
       <c r="J15" t="n">
         <v>21.1736046204575</v>
       </c>
       <c r="K15" t="n">
-        <v>36.18906277848679</v>
+        <v>36.18906277848678</v>
       </c>
       <c r="L15" t="n">
         <v>48.66066091340925</v>
@@ -32090,25 +32090,25 @@
         <v>58.2876180487679</v>
       </c>
       <c r="O15" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412506</v>
       </c>
       <c r="P15" t="n">
-        <v>42.79543187249797</v>
+        <v>42.79543187249796</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.60761287190916</v>
+        <v>28.60761287190915</v>
       </c>
       <c r="R15" t="n">
         <v>13.91456046642201</v>
       </c>
       <c r="S15" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390021</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9033258737384725</v>
+        <v>0.9033258737384724</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0147441655125975</v>
+        <v>0.01474416551259749</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,16 +32151,16 @@
         <v>1.670489781814161</v>
       </c>
       <c r="I16" t="n">
-        <v>5.650286501269164</v>
+        <v>5.650286501269163</v>
       </c>
       <c r="J16" t="n">
         <v>13.28363909321955</v>
       </c>
       <c r="K16" t="n">
-        <v>21.82909960284761</v>
+        <v>21.8290996028476</v>
       </c>
       <c r="L16" t="n">
-        <v>27.93373199569405</v>
+        <v>27.93373199569404</v>
       </c>
       <c r="M16" t="n">
         <v>29.45220379122858</v>
@@ -32178,16 +32178,16 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R16" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718642</v>
       </c>
       <c r="S16" t="n">
         <v>3.27436494042714</v>
       </c>
       <c r="T16" t="n">
-        <v>0.802791612937275</v>
+        <v>0.8027916129372749</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941203</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>0.4188627254500054</v>
       </c>
       <c r="H17" t="n">
-        <v>4.289677887014869</v>
+        <v>4.289677887014868</v>
       </c>
       <c r="I17" t="n">
         <v>16.14820522291135</v>
@@ -32236,7 +32236,7 @@
         <v>35.55045024416243</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28090941246117</v>
+        <v>53.28090941246116</v>
       </c>
       <c r="L17" t="n">
         <v>66.09967954645178</v>
@@ -32248,7 +32248,7 @@
         <v>74.73872325885814</v>
       </c>
       <c r="O17" t="n">
-        <v>70.57365703266466</v>
+        <v>70.57365703266464</v>
       </c>
       <c r="P17" t="n">
         <v>60.23298349811763</v>
@@ -32257,16 +32257,16 @@
         <v>45.2324621429393</v>
       </c>
       <c r="R17" t="n">
-        <v>26.31138567754893</v>
+        <v>26.31138567754892</v>
       </c>
       <c r="S17" t="n">
         <v>9.544834356192007</v>
       </c>
       <c r="T17" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657399</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03350901803600043</v>
+        <v>0.03350901803600042</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32303,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.2241113157914818</v>
       </c>
       <c r="H18" t="n">
-        <v>2.164443497249312</v>
+        <v>2.164443497249311</v>
       </c>
       <c r="I18" t="n">
-        <v>7.716113284926021</v>
+        <v>7.71611328492602</v>
       </c>
       <c r="J18" t="n">
         <v>21.1736046204575</v>
       </c>
       <c r="K18" t="n">
-        <v>36.18906277848679</v>
+        <v>36.18906277848678</v>
       </c>
       <c r="L18" t="n">
         <v>48.66066091340925</v>
@@ -32327,25 +32327,25 @@
         <v>58.2876180487679</v>
       </c>
       <c r="O18" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412506</v>
       </c>
       <c r="P18" t="n">
-        <v>42.79543187249797</v>
+        <v>42.79543187249796</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.60761287190916</v>
+        <v>28.60761287190915</v>
       </c>
       <c r="R18" t="n">
         <v>13.91456046642201</v>
       </c>
       <c r="S18" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390021</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9033258737384725</v>
+        <v>0.9033258737384724</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0147441655125975</v>
+        <v>0.01474416551259749</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,16 +32388,16 @@
         <v>1.670489781814161</v>
       </c>
       <c r="I19" t="n">
-        <v>5.650286501269164</v>
+        <v>5.650286501269163</v>
       </c>
       <c r="J19" t="n">
         <v>13.28363909321955</v>
       </c>
       <c r="K19" t="n">
-        <v>21.82909960284761</v>
+        <v>21.8290996028476</v>
       </c>
       <c r="L19" t="n">
-        <v>27.93373199569405</v>
+        <v>27.93373199569404</v>
       </c>
       <c r="M19" t="n">
         <v>29.45220379122858</v>
@@ -32415,16 +32415,16 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R19" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718642</v>
       </c>
       <c r="S19" t="n">
         <v>3.27436494042714</v>
       </c>
       <c r="T19" t="n">
-        <v>0.802791612937275</v>
+        <v>0.8027916129372749</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941203</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>0.4188627254500054</v>
       </c>
       <c r="H20" t="n">
-        <v>4.289677887014869</v>
+        <v>4.289677887014868</v>
       </c>
       <c r="I20" t="n">
         <v>16.14820522291135</v>
@@ -32473,7 +32473,7 @@
         <v>35.55045024416243</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28090941246117</v>
+        <v>53.28090941246116</v>
       </c>
       <c r="L20" t="n">
         <v>66.09967954645178</v>
@@ -32485,7 +32485,7 @@
         <v>74.73872325885814</v>
       </c>
       <c r="O20" t="n">
-        <v>70.57365703266466</v>
+        <v>70.57365703266464</v>
       </c>
       <c r="P20" t="n">
         <v>60.23298349811763</v>
@@ -32494,16 +32494,16 @@
         <v>45.2324621429393</v>
       </c>
       <c r="R20" t="n">
-        <v>26.31138567754893</v>
+        <v>26.31138567754892</v>
       </c>
       <c r="S20" t="n">
         <v>9.544834356192007</v>
       </c>
       <c r="T20" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657399</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03350901803600043</v>
+        <v>0.03350901803600042</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32540,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.2241113157914818</v>
       </c>
       <c r="H21" t="n">
-        <v>2.164443497249312</v>
+        <v>2.164443497249311</v>
       </c>
       <c r="I21" t="n">
-        <v>7.716113284926021</v>
+        <v>7.71611328492602</v>
       </c>
       <c r="J21" t="n">
         <v>21.1736046204575</v>
       </c>
       <c r="K21" t="n">
-        <v>36.18906277848679</v>
+        <v>36.18906277848678</v>
       </c>
       <c r="L21" t="n">
         <v>48.66066091340925</v>
@@ -32564,25 +32564,25 @@
         <v>58.2876180487679</v>
       </c>
       <c r="O21" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412506</v>
       </c>
       <c r="P21" t="n">
-        <v>42.79543187249797</v>
+        <v>42.79543187249796</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.60761287190916</v>
+        <v>28.60761287190915</v>
       </c>
       <c r="R21" t="n">
         <v>13.91456046642201</v>
       </c>
       <c r="S21" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390021</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9033258737384725</v>
+        <v>0.9033258737384724</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0147441655125975</v>
+        <v>0.01474416551259749</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,16 +32625,16 @@
         <v>1.670489781814161</v>
       </c>
       <c r="I22" t="n">
-        <v>5.650286501269164</v>
+        <v>5.650286501269163</v>
       </c>
       <c r="J22" t="n">
         <v>13.28363909321955</v>
       </c>
       <c r="K22" t="n">
-        <v>21.82909960284761</v>
+        <v>21.8290996028476</v>
       </c>
       <c r="L22" t="n">
-        <v>27.93373199569405</v>
+        <v>27.93373199569404</v>
       </c>
       <c r="M22" t="n">
         <v>29.45220379122858</v>
@@ -32652,16 +32652,16 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R22" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718642</v>
       </c>
       <c r="S22" t="n">
         <v>3.27436494042714</v>
       </c>
       <c r="T22" t="n">
-        <v>0.802791612937275</v>
+        <v>0.8027916129372749</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941203</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>0.4188627254500054</v>
       </c>
       <c r="H23" t="n">
-        <v>4.289677887014869</v>
+        <v>4.289677887014868</v>
       </c>
       <c r="I23" t="n">
         <v>16.14820522291135</v>
@@ -32710,7 +32710,7 @@
         <v>35.55045024416243</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28090941246117</v>
+        <v>53.28090941246116</v>
       </c>
       <c r="L23" t="n">
         <v>66.09967954645178</v>
@@ -32722,7 +32722,7 @@
         <v>74.73872325885814</v>
       </c>
       <c r="O23" t="n">
-        <v>70.57365703266466</v>
+        <v>70.57365703266464</v>
       </c>
       <c r="P23" t="n">
         <v>60.23298349811763</v>
@@ -32731,16 +32731,16 @@
         <v>45.2324621429393</v>
       </c>
       <c r="R23" t="n">
-        <v>26.31138567754893</v>
+        <v>26.31138567754892</v>
       </c>
       <c r="S23" t="n">
         <v>9.544834356192007</v>
       </c>
       <c r="T23" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657399</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03350901803600043</v>
+        <v>0.03350901803600042</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32777,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.2241113157914818</v>
       </c>
       <c r="H24" t="n">
-        <v>2.164443497249312</v>
+        <v>2.164443497249311</v>
       </c>
       <c r="I24" t="n">
-        <v>7.716113284926021</v>
+        <v>7.71611328492602</v>
       </c>
       <c r="J24" t="n">
         <v>21.1736046204575</v>
       </c>
       <c r="K24" t="n">
-        <v>36.18906277848679</v>
+        <v>36.18906277848678</v>
       </c>
       <c r="L24" t="n">
         <v>48.66066091340925</v>
@@ -32801,25 +32801,25 @@
         <v>58.2876180487679</v>
       </c>
       <c r="O24" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412506</v>
       </c>
       <c r="P24" t="n">
-        <v>42.79543187249797</v>
+        <v>42.79543187249796</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.60761287190916</v>
+        <v>28.60761287190915</v>
       </c>
       <c r="R24" t="n">
         <v>13.91456046642201</v>
       </c>
       <c r="S24" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390021</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9033258737384725</v>
+        <v>0.9033258737384724</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0147441655125975</v>
+        <v>0.01474416551259749</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,16 +32862,16 @@
         <v>1.670489781814161</v>
       </c>
       <c r="I25" t="n">
-        <v>5.650286501269164</v>
+        <v>5.650286501269163</v>
       </c>
       <c r="J25" t="n">
         <v>13.28363909321955</v>
       </c>
       <c r="K25" t="n">
-        <v>21.82909960284761</v>
+        <v>21.8290996028476</v>
       </c>
       <c r="L25" t="n">
-        <v>27.93373199569405</v>
+        <v>27.93373199569404</v>
       </c>
       <c r="M25" t="n">
         <v>29.45220379122858</v>
@@ -32889,16 +32889,16 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R25" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718642</v>
       </c>
       <c r="S25" t="n">
         <v>3.27436494042714</v>
       </c>
       <c r="T25" t="n">
-        <v>0.802791612937275</v>
+        <v>0.8027916129372749</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941203</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>0.4188627254500054</v>
       </c>
       <c r="H26" t="n">
-        <v>4.289677887014869</v>
+        <v>4.289677887014868</v>
       </c>
       <c r="I26" t="n">
         <v>16.14820522291135</v>
@@ -32947,7 +32947,7 @@
         <v>35.55045024416243</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28090941246117</v>
+        <v>53.28090941246116</v>
       </c>
       <c r="L26" t="n">
         <v>66.09967954645178</v>
@@ -32959,7 +32959,7 @@
         <v>74.73872325885814</v>
       </c>
       <c r="O26" t="n">
-        <v>70.57365703266466</v>
+        <v>70.57365703266464</v>
       </c>
       <c r="P26" t="n">
         <v>60.23298349811763</v>
@@ -32968,16 +32968,16 @@
         <v>45.2324621429393</v>
       </c>
       <c r="R26" t="n">
-        <v>26.31138567754893</v>
+        <v>26.31138567754892</v>
       </c>
       <c r="S26" t="n">
         <v>9.544834356192007</v>
       </c>
       <c r="T26" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657399</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03350901803600043</v>
+        <v>0.03350901803600042</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33014,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.2241113157914818</v>
       </c>
       <c r="H27" t="n">
-        <v>2.164443497249312</v>
+        <v>2.164443497249311</v>
       </c>
       <c r="I27" t="n">
-        <v>7.716113284926021</v>
+        <v>7.71611328492602</v>
       </c>
       <c r="J27" t="n">
         <v>21.1736046204575</v>
       </c>
       <c r="K27" t="n">
-        <v>36.18906277848679</v>
+        <v>36.18906277848678</v>
       </c>
       <c r="L27" t="n">
         <v>48.66066091340925</v>
@@ -33038,25 +33038,25 @@
         <v>58.2876180487679</v>
       </c>
       <c r="O27" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412506</v>
       </c>
       <c r="P27" t="n">
-        <v>42.79543187249797</v>
+        <v>42.79543187249796</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.60761287190916</v>
+        <v>28.60761287190915</v>
       </c>
       <c r="R27" t="n">
         <v>13.91456046642201</v>
       </c>
       <c r="S27" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390021</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9033258737384725</v>
+        <v>0.9033258737384724</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0147441655125975</v>
+        <v>0.01474416551259749</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,16 +33099,16 @@
         <v>1.670489781814161</v>
       </c>
       <c r="I28" t="n">
-        <v>5.650286501269164</v>
+        <v>5.650286501269163</v>
       </c>
       <c r="J28" t="n">
         <v>13.28363909321955</v>
       </c>
       <c r="K28" t="n">
-        <v>21.82909960284761</v>
+        <v>21.8290996028476</v>
       </c>
       <c r="L28" t="n">
-        <v>27.93373199569405</v>
+        <v>27.93373199569404</v>
       </c>
       <c r="M28" t="n">
         <v>29.45220379122858</v>
@@ -33126,16 +33126,16 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R28" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718642</v>
       </c>
       <c r="S28" t="n">
         <v>3.27436494042714</v>
       </c>
       <c r="T28" t="n">
-        <v>0.802791612937275</v>
+        <v>0.8027916129372749</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941203</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>0.4188627254500054</v>
       </c>
       <c r="H29" t="n">
-        <v>4.289677887014869</v>
+        <v>4.289677887014868</v>
       </c>
       <c r="I29" t="n">
         <v>16.14820522291135</v>
@@ -33184,7 +33184,7 @@
         <v>35.55045024416243</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28090941246117</v>
+        <v>53.28090941246116</v>
       </c>
       <c r="L29" t="n">
         <v>66.09967954645178</v>
@@ -33196,7 +33196,7 @@
         <v>74.73872325885814</v>
       </c>
       <c r="O29" t="n">
-        <v>70.57365703266466</v>
+        <v>70.57365703266464</v>
       </c>
       <c r="P29" t="n">
         <v>60.23298349811763</v>
@@ -33205,16 +33205,16 @@
         <v>45.2324621429393</v>
       </c>
       <c r="R29" t="n">
-        <v>26.31138567754893</v>
+        <v>26.31138567754892</v>
       </c>
       <c r="S29" t="n">
         <v>9.544834356192007</v>
       </c>
       <c r="T29" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657399</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03350901803600043</v>
+        <v>0.03350901803600042</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33251,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.2241113157914818</v>
       </c>
       <c r="H30" t="n">
-        <v>2.164443497249312</v>
+        <v>2.164443497249311</v>
       </c>
       <c r="I30" t="n">
-        <v>7.716113284926021</v>
+        <v>7.71611328492602</v>
       </c>
       <c r="J30" t="n">
         <v>21.1736046204575</v>
       </c>
       <c r="K30" t="n">
-        <v>36.18906277848679</v>
+        <v>36.18906277848678</v>
       </c>
       <c r="L30" t="n">
         <v>48.66066091340925</v>
@@ -33275,25 +33275,25 @@
         <v>58.2876180487679</v>
       </c>
       <c r="O30" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412506</v>
       </c>
       <c r="P30" t="n">
-        <v>42.79543187249797</v>
+        <v>42.79543187249796</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.60761287190916</v>
+        <v>28.60761287190915</v>
       </c>
       <c r="R30" t="n">
         <v>13.91456046642201</v>
       </c>
       <c r="S30" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390021</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9033258737384725</v>
+        <v>0.9033258737384724</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0147441655125975</v>
+        <v>0.01474416551259749</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,16 +33336,16 @@
         <v>1.670489781814161</v>
       </c>
       <c r="I31" t="n">
-        <v>5.650286501269164</v>
+        <v>5.650286501269163</v>
       </c>
       <c r="J31" t="n">
         <v>13.28363909321955</v>
       </c>
       <c r="K31" t="n">
-        <v>21.82909960284761</v>
+        <v>21.8290996028476</v>
       </c>
       <c r="L31" t="n">
-        <v>27.93373199569405</v>
+        <v>27.93373199569404</v>
       </c>
       <c r="M31" t="n">
         <v>29.45220379122858</v>
@@ -33363,16 +33363,16 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R31" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718642</v>
       </c>
       <c r="S31" t="n">
         <v>3.27436494042714</v>
       </c>
       <c r="T31" t="n">
-        <v>0.802791612937275</v>
+        <v>0.8027916129372749</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941203</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>0.4188627254500054</v>
       </c>
       <c r="H32" t="n">
-        <v>4.289677887014869</v>
+        <v>4.289677887014868</v>
       </c>
       <c r="I32" t="n">
         <v>16.14820522291135</v>
@@ -33421,7 +33421,7 @@
         <v>35.55045024416243</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28090941246117</v>
+        <v>53.28090941246116</v>
       </c>
       <c r="L32" t="n">
         <v>66.09967954645178</v>
@@ -33433,7 +33433,7 @@
         <v>74.73872325885814</v>
       </c>
       <c r="O32" t="n">
-        <v>70.57365703266466</v>
+        <v>70.57365703266464</v>
       </c>
       <c r="P32" t="n">
         <v>60.23298349811763</v>
@@ -33442,16 +33442,16 @@
         <v>45.2324621429393</v>
       </c>
       <c r="R32" t="n">
-        <v>26.31138567754893</v>
+        <v>26.31138567754892</v>
       </c>
       <c r="S32" t="n">
         <v>9.544834356192007</v>
       </c>
       <c r="T32" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657399</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03350901803600043</v>
+        <v>0.03350901803600042</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33488,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.2241113157914818</v>
       </c>
       <c r="H33" t="n">
-        <v>2.164443497249312</v>
+        <v>2.164443497249311</v>
       </c>
       <c r="I33" t="n">
-        <v>7.716113284926021</v>
+        <v>7.71611328492602</v>
       </c>
       <c r="J33" t="n">
         <v>21.1736046204575</v>
       </c>
       <c r="K33" t="n">
-        <v>36.18906277848679</v>
+        <v>36.18906277848678</v>
       </c>
       <c r="L33" t="n">
         <v>48.66066091340925</v>
@@ -33512,25 +33512,25 @@
         <v>58.2876180487679</v>
       </c>
       <c r="O33" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412506</v>
       </c>
       <c r="P33" t="n">
-        <v>42.79543187249797</v>
+        <v>42.79543187249796</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.60761287190916</v>
+        <v>28.60761287190915</v>
       </c>
       <c r="R33" t="n">
         <v>13.91456046642201</v>
       </c>
       <c r="S33" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390021</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9033258737384725</v>
+        <v>0.9033258737384724</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0147441655125975</v>
+        <v>0.01474416551259749</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,16 +33573,16 @@
         <v>1.670489781814161</v>
       </c>
       <c r="I34" t="n">
-        <v>5.650286501269164</v>
+        <v>5.650286501269163</v>
       </c>
       <c r="J34" t="n">
         <v>13.28363909321955</v>
       </c>
       <c r="K34" t="n">
-        <v>21.82909960284761</v>
+        <v>21.8290996028476</v>
       </c>
       <c r="L34" t="n">
-        <v>27.93373199569405</v>
+        <v>27.93373199569404</v>
       </c>
       <c r="M34" t="n">
         <v>29.45220379122858</v>
@@ -33600,16 +33600,16 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R34" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718642</v>
       </c>
       <c r="S34" t="n">
         <v>3.27436494042714</v>
       </c>
       <c r="T34" t="n">
-        <v>0.802791612937275</v>
+        <v>0.8027916129372749</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941203</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>0.4188627254500054</v>
       </c>
       <c r="H35" t="n">
-        <v>4.289677887014869</v>
+        <v>4.289677887014868</v>
       </c>
       <c r="I35" t="n">
         <v>16.14820522291135</v>
@@ -33658,7 +33658,7 @@
         <v>35.55045024416243</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28090941246117</v>
+        <v>53.28090941246116</v>
       </c>
       <c r="L35" t="n">
         <v>66.09967954645178</v>
@@ -33670,7 +33670,7 @@
         <v>74.73872325885814</v>
       </c>
       <c r="O35" t="n">
-        <v>70.57365703266466</v>
+        <v>70.57365703266464</v>
       </c>
       <c r="P35" t="n">
         <v>60.23298349811763</v>
@@ -33679,16 +33679,16 @@
         <v>45.2324621429393</v>
       </c>
       <c r="R35" t="n">
-        <v>26.31138567754893</v>
+        <v>26.31138567754892</v>
       </c>
       <c r="S35" t="n">
         <v>9.544834356192007</v>
       </c>
       <c r="T35" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657399</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03350901803600043</v>
+        <v>0.03350901803600042</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33725,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.2241113157914818</v>
       </c>
       <c r="H36" t="n">
-        <v>2.164443497249312</v>
+        <v>2.164443497249311</v>
       </c>
       <c r="I36" t="n">
-        <v>7.716113284926021</v>
+        <v>7.71611328492602</v>
       </c>
       <c r="J36" t="n">
         <v>21.1736046204575</v>
       </c>
       <c r="K36" t="n">
-        <v>36.18906277848679</v>
+        <v>36.18906277848678</v>
       </c>
       <c r="L36" t="n">
         <v>48.66066091340925</v>
@@ -33749,25 +33749,25 @@
         <v>58.2876180487679</v>
       </c>
       <c r="O36" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412506</v>
       </c>
       <c r="P36" t="n">
-        <v>42.79543187249797</v>
+        <v>42.79543187249796</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.60761287190916</v>
+        <v>28.60761287190915</v>
       </c>
       <c r="R36" t="n">
         <v>13.91456046642201</v>
       </c>
       <c r="S36" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390021</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9033258737384725</v>
+        <v>0.9033258737384724</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0147441655125975</v>
+        <v>0.01474416551259749</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,16 +33810,16 @@
         <v>1.670489781814161</v>
       </c>
       <c r="I37" t="n">
-        <v>5.650286501269164</v>
+        <v>5.650286501269163</v>
       </c>
       <c r="J37" t="n">
         <v>13.28363909321955</v>
       </c>
       <c r="K37" t="n">
-        <v>21.82909960284761</v>
+        <v>21.8290996028476</v>
       </c>
       <c r="L37" t="n">
-        <v>27.93373199569405</v>
+        <v>27.93373199569404</v>
       </c>
       <c r="M37" t="n">
         <v>29.45220379122858</v>
@@ -33837,16 +33837,16 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R37" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718642</v>
       </c>
       <c r="S37" t="n">
         <v>3.27436494042714</v>
       </c>
       <c r="T37" t="n">
-        <v>0.802791612937275</v>
+        <v>0.8027916129372749</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941203</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>0.4188627254500054</v>
       </c>
       <c r="H38" t="n">
-        <v>4.289677887014869</v>
+        <v>4.289677887014868</v>
       </c>
       <c r="I38" t="n">
         <v>16.14820522291135</v>
@@ -33895,7 +33895,7 @@
         <v>35.55045024416243</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28090941246117</v>
+        <v>53.28090941246116</v>
       </c>
       <c r="L38" t="n">
         <v>66.09967954645178</v>
@@ -33907,7 +33907,7 @@
         <v>74.73872325885814</v>
       </c>
       <c r="O38" t="n">
-        <v>70.57365703266466</v>
+        <v>70.57365703266464</v>
       </c>
       <c r="P38" t="n">
         <v>60.23298349811763</v>
@@ -33916,16 +33916,16 @@
         <v>45.2324621429393</v>
       </c>
       <c r="R38" t="n">
-        <v>26.31138567754893</v>
+        <v>26.31138567754892</v>
       </c>
       <c r="S38" t="n">
         <v>9.544834356192007</v>
       </c>
       <c r="T38" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657399</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03350901803600043</v>
+        <v>0.03350901803600042</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33962,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.2241113157914818</v>
       </c>
       <c r="H39" t="n">
-        <v>2.164443497249312</v>
+        <v>2.164443497249311</v>
       </c>
       <c r="I39" t="n">
-        <v>7.716113284926021</v>
+        <v>7.71611328492602</v>
       </c>
       <c r="J39" t="n">
         <v>21.1736046204575</v>
       </c>
       <c r="K39" t="n">
-        <v>36.18906277848679</v>
+        <v>36.18906277848678</v>
       </c>
       <c r="L39" t="n">
         <v>48.66066091340925</v>
@@ -33986,25 +33986,25 @@
         <v>58.2876180487679</v>
       </c>
       <c r="O39" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412506</v>
       </c>
       <c r="P39" t="n">
-        <v>42.79543187249797</v>
+        <v>42.79543187249796</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.60761287190916</v>
+        <v>28.60761287190915</v>
       </c>
       <c r="R39" t="n">
         <v>13.91456046642201</v>
       </c>
       <c r="S39" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390021</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9033258737384725</v>
+        <v>0.9033258737384724</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0147441655125975</v>
+        <v>0.01474416551259749</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,16 +34047,16 @@
         <v>1.670489781814161</v>
       </c>
       <c r="I40" t="n">
-        <v>5.650286501269164</v>
+        <v>5.650286501269163</v>
       </c>
       <c r="J40" t="n">
         <v>13.28363909321955</v>
       </c>
       <c r="K40" t="n">
-        <v>21.82909960284761</v>
+        <v>21.8290996028476</v>
       </c>
       <c r="L40" t="n">
-        <v>27.93373199569405</v>
+        <v>27.93373199569404</v>
       </c>
       <c r="M40" t="n">
         <v>29.45220379122858</v>
@@ -34074,16 +34074,16 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R40" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718642</v>
       </c>
       <c r="S40" t="n">
         <v>3.27436494042714</v>
       </c>
       <c r="T40" t="n">
-        <v>0.802791612937275</v>
+        <v>0.8027916129372749</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941203</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>0.4188627254500054</v>
       </c>
       <c r="H41" t="n">
-        <v>4.289677887014869</v>
+        <v>4.289677887014868</v>
       </c>
       <c r="I41" t="n">
         <v>16.14820522291135</v>
@@ -34132,7 +34132,7 @@
         <v>35.55045024416243</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28090941246117</v>
+        <v>53.28090941246116</v>
       </c>
       <c r="L41" t="n">
         <v>66.09967954645178</v>
@@ -34144,7 +34144,7 @@
         <v>74.73872325885814</v>
       </c>
       <c r="O41" t="n">
-        <v>70.57365703266466</v>
+        <v>70.57365703266464</v>
       </c>
       <c r="P41" t="n">
         <v>60.23298349811763</v>
@@ -34153,16 +34153,16 @@
         <v>45.2324621429393</v>
       </c>
       <c r="R41" t="n">
-        <v>26.31138567754893</v>
+        <v>26.31138567754892</v>
       </c>
       <c r="S41" t="n">
         <v>9.544834356192007</v>
       </c>
       <c r="T41" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657399</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03350901803600043</v>
+        <v>0.03350901803600042</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34199,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.2241113157914818</v>
       </c>
       <c r="H42" t="n">
-        <v>2.164443497249312</v>
+        <v>2.164443497249311</v>
       </c>
       <c r="I42" t="n">
-        <v>7.716113284926021</v>
+        <v>7.71611328492602</v>
       </c>
       <c r="J42" t="n">
         <v>21.1736046204575</v>
       </c>
       <c r="K42" t="n">
-        <v>36.18906277848679</v>
+        <v>36.18906277848678</v>
       </c>
       <c r="L42" t="n">
         <v>48.66066091340925</v>
@@ -34223,25 +34223,25 @@
         <v>58.2876180487679</v>
       </c>
       <c r="O42" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412506</v>
       </c>
       <c r="P42" t="n">
-        <v>42.79543187249797</v>
+        <v>42.79543187249796</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.60761287190916</v>
+        <v>28.60761287190915</v>
       </c>
       <c r="R42" t="n">
         <v>13.91456046642201</v>
       </c>
       <c r="S42" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390021</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9033258737384725</v>
+        <v>0.9033258737384724</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0147441655125975</v>
+        <v>0.01474416551259749</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,16 +34284,16 @@
         <v>1.670489781814161</v>
       </c>
       <c r="I43" t="n">
-        <v>5.650286501269164</v>
+        <v>5.650286501269163</v>
       </c>
       <c r="J43" t="n">
         <v>13.28363909321955</v>
       </c>
       <c r="K43" t="n">
-        <v>21.82909960284761</v>
+        <v>21.8290996028476</v>
       </c>
       <c r="L43" t="n">
-        <v>27.93373199569405</v>
+        <v>27.93373199569404</v>
       </c>
       <c r="M43" t="n">
         <v>29.45220379122858</v>
@@ -34311,16 +34311,16 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R43" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718642</v>
       </c>
       <c r="S43" t="n">
         <v>3.27436494042714</v>
       </c>
       <c r="T43" t="n">
-        <v>0.802791612937275</v>
+        <v>0.8027916129372749</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941203</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>0.4188627254500054</v>
       </c>
       <c r="H44" t="n">
-        <v>4.289677887014869</v>
+        <v>4.289677887014868</v>
       </c>
       <c r="I44" t="n">
         <v>16.14820522291135</v>
@@ -34369,7 +34369,7 @@
         <v>35.55045024416243</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28090941246117</v>
+        <v>53.28090941246116</v>
       </c>
       <c r="L44" t="n">
         <v>66.09967954645178</v>
@@ -34381,7 +34381,7 @@
         <v>74.73872325885814</v>
       </c>
       <c r="O44" t="n">
-        <v>70.57365703266466</v>
+        <v>70.57365703266464</v>
       </c>
       <c r="P44" t="n">
         <v>60.23298349811763</v>
@@ -34390,16 +34390,16 @@
         <v>45.2324621429393</v>
       </c>
       <c r="R44" t="n">
-        <v>26.31138567754893</v>
+        <v>26.31138567754892</v>
       </c>
       <c r="S44" t="n">
         <v>9.544834356192007</v>
       </c>
       <c r="T44" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657399</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03350901803600043</v>
+        <v>0.03350901803600042</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34436,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.2241113157914818</v>
       </c>
       <c r="H45" t="n">
-        <v>2.164443497249312</v>
+        <v>2.164443497249311</v>
       </c>
       <c r="I45" t="n">
-        <v>7.716113284926021</v>
+        <v>7.71611328492602</v>
       </c>
       <c r="J45" t="n">
         <v>21.1736046204575</v>
       </c>
       <c r="K45" t="n">
-        <v>36.18906277848679</v>
+        <v>36.18906277848678</v>
       </c>
       <c r="L45" t="n">
         <v>48.66066091340925</v>
@@ -34460,25 +34460,25 @@
         <v>58.2876180487679</v>
       </c>
       <c r="O45" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412506</v>
       </c>
       <c r="P45" t="n">
-        <v>42.79543187249797</v>
+        <v>42.79543187249796</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.60761287190916</v>
+        <v>28.60761287190915</v>
       </c>
       <c r="R45" t="n">
         <v>13.91456046642201</v>
       </c>
       <c r="S45" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390021</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9033258737384725</v>
+        <v>0.9033258737384724</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0147441655125975</v>
+        <v>0.01474416551259749</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,16 +34521,16 @@
         <v>1.670489781814161</v>
       </c>
       <c r="I46" t="n">
-        <v>5.650286501269164</v>
+        <v>5.650286501269163</v>
       </c>
       <c r="J46" t="n">
         <v>13.28363909321955</v>
       </c>
       <c r="K46" t="n">
-        <v>21.82909960284761</v>
+        <v>21.8290996028476</v>
       </c>
       <c r="L46" t="n">
-        <v>27.93373199569405</v>
+        <v>27.93373199569404</v>
       </c>
       <c r="M46" t="n">
         <v>29.45220379122858</v>
@@ -34548,16 +34548,16 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R46" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718642</v>
       </c>
       <c r="S46" t="n">
         <v>3.27436494042714</v>
       </c>
       <c r="T46" t="n">
-        <v>0.802791612937275</v>
+        <v>0.8027916129372749</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941203</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>73.86583966179919</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>49.10912031175921</v>
@@ -35419,19 +35419,19 @@
         <v>83.81099470625607</v>
       </c>
       <c r="N11" t="n">
-        <v>78.25559268998295</v>
+        <v>83.81099470625607</v>
       </c>
       <c r="O11" t="n">
-        <v>36.61235655646583</v>
+        <v>36.61235655646581</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>78.51420972787271</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>10.20377208234665</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.39598081391978</v>
       </c>
       <c r="L12" t="n">
         <v>83.81099470625607</v>
@@ -35498,13 +35498,13 @@
         <v>83.81099470625607</v>
       </c>
       <c r="N12" t="n">
+        <v>41.02871107592191</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>83.81099470625607</v>
-      </c>
-      <c r="O12" t="n">
-        <v>80.42469188984167</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35550,31 +35550,31 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>62.64636124812128</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>65.39562024189988</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>21.34535810765304</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>39.63334649163627</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>83.81099470625607</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>71.11478038569933</v>
-      </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>83.81099470625607</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35586,10 +35586,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.56164504751432</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.1374671338884</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>83.81099470625607</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.258617037889785</v>
       </c>
       <c r="L14" t="n">
         <v>49.10912031175921</v>
@@ -35659,13 +35659,13 @@
         <v>78.25559268998295</v>
       </c>
       <c r="O14" t="n">
-        <v>36.61235655646583</v>
+        <v>36.61235655646581</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2586170378897419</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.81099470625607</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.39598081391979</v>
+        <v>39.39598081391978</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>83.81099470625607</v>
       </c>
       <c r="M15" t="n">
-        <v>41.0287110759219</v>
+        <v>83.81099470625607</v>
       </c>
       <c r="N15" t="n">
         <v>83.81099470625607</v>
       </c>
       <c r="O15" t="n">
-        <v>83.81099470625607</v>
+        <v>41.02871107592188</v>
       </c>
       <c r="P15" t="n">
-        <v>83.81099470625607</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,13 +35778,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.70558179537827</v>
+        <v>26.70558179537849</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>59.13985220963565</v>
+        <v>59.13985220963588</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35805,28 +35805,28 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>83.81099470625607</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>83.81099470625607</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>40.52889083617448</v>
       </c>
       <c r="P16" t="n">
-        <v>46.77824049491797</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.5616450475144</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.137467133888231</v>
+        <v>1.137467133888457</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>49.10912031175921</v>
+        <v>49.367737349649</v>
       </c>
       <c r="M17" t="n">
         <v>83.81099470625607</v>
@@ -35896,16 +35896,16 @@
         <v>78.25559268998295</v>
       </c>
       <c r="O17" t="n">
-        <v>36.61235655646583</v>
+        <v>36.61235655646581</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>69.23167947462892</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>83.81099470625607</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35917,7 +35917,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8379322695169</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.39598081391979</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>83.81099470625607</v>
       </c>
       <c r="M18" t="n">
-        <v>83.81099470625607</v>
+        <v>80.42469188984168</v>
       </c>
       <c r="N18" t="n">
         <v>83.81099470625607</v>
       </c>
       <c r="O18" t="n">
-        <v>41.02871107592188</v>
+        <v>83.81099470625607</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.10912031175921</v>
+        <v>49.367737349649</v>
       </c>
       <c r="M20" t="n">
         <v>83.81099470625607</v>
@@ -36133,7 +36133,7 @@
         <v>78.25559268998295</v>
       </c>
       <c r="O20" t="n">
-        <v>36.61235655646583</v>
+        <v>36.61235655646581</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2586170378897419</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>83.81099470625607</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.39598081391978</v>
       </c>
       <c r="L21" t="n">
+        <v>41.0287110759219</v>
+      </c>
+      <c r="M21" t="n">
         <v>83.81099470625607</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
       <c r="N21" t="n">
-        <v>80.42469188984168</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>83.81099470625607</v>
@@ -36367,10 +36367,10 @@
         <v>83.81099470625607</v>
       </c>
       <c r="N23" t="n">
-        <v>78.25559268998295</v>
+        <v>78.51420972787271</v>
       </c>
       <c r="O23" t="n">
-        <v>36.61235655646583</v>
+        <v>36.61235655646581</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36385,10 +36385,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>83.81099470625607</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.2586170378897419</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.39598081391978</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>83.81099470625607</v>
       </c>
       <c r="M24" t="n">
-        <v>80.42469188984168</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>83.81099470625607</v>
@@ -36452,7 +36452,7 @@
         <v>83.81099470625607</v>
       </c>
       <c r="P24" t="n">
-        <v>83.81099470625607</v>
+        <v>41.02871107592188</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.091460027022</v>
+        <v>137.0914600270219</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6599251576127</v>
+        <v>207.6599251576126</v>
       </c>
       <c r="L26" t="n">
         <v>261.9515269856722</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6534013801682</v>
+        <v>296.653401380169</v>
       </c>
       <c r="N26" t="n">
-        <v>291.097999363896</v>
+        <v>291.0979993638959</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4547632303788</v>
+        <v>249.4547632303787</v>
       </c>
       <c r="P26" t="n">
-        <v>199.4966982457225</v>
+        <v>199.4966982457231</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4420411176422</v>
+        <v>124.4420411176421</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72367629591339</v>
+        <v>18.7236762959133</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.39598081391979</v>
+        <v>39.39598081391978</v>
       </c>
       <c r="L27" t="n">
         <v>119.9288613386043</v>
@@ -36747,19 +36747,19 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.15325070520277</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>146.4452919000423</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>181.5004402054235</v>
       </c>
       <c r="M28" t="n">
-        <v>42.4397823083527</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>55.53788470817485</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.39598081391979</v>
+        <v>39.39598081391978</v>
       </c>
       <c r="L30" t="n">
         <v>119.9288613386043</v>
@@ -37002,10 +37002,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>176.1334593506263</v>
+        <v>82.01570330423709</v>
       </c>
       <c r="P31" t="n">
-        <v>60.90486556297208</v>
+        <v>155.0226216093611</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>137.091460027022</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6599251576126</v>
+        <v>207.6599251576127</v>
       </c>
       <c r="L32" t="n">
         <v>261.9515269856722</v>
       </c>
       <c r="M32" t="n">
-        <v>296.6534013801683</v>
+        <v>296.6534013801691</v>
       </c>
       <c r="N32" t="n">
         <v>291.097999363896</v>
@@ -37087,10 +37087,10 @@
         <v>199.4966982457225</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.4420411176422</v>
+        <v>124.4420411176418</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72367629591336</v>
+        <v>18.72367629591339</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.39598081391979</v>
+        <v>39.39598081391978</v>
       </c>
       <c r="L33" t="n">
         <v>119.9288613386043</v>
@@ -37203,13 +37203,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>46.38522570194067</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.166265461688</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37218,19 +37218,19 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.06643956128728</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.15325070520274</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>70.65236918541994</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>181.5004402054236</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>9.152659006233511</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>160.2672697472271</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>140.048766628559</v>
+        <v>230.8357348778177</v>
       </c>
       <c r="L35" t="n">
         <v>285.1273367058773</v>
@@ -37318,22 +37318,22 @@
         <v>78.25559268998295</v>
       </c>
       <c r="O35" t="n">
-        <v>36.61235655646583</v>
+        <v>106.0926580544351</v>
       </c>
       <c r="P35" t="n">
-        <v>222.6725079659277</v>
+        <v>222.6725079659276</v>
       </c>
       <c r="Q35" t="n">
-        <v>147.6178508378473</v>
+        <v>147.6178508378472</v>
       </c>
       <c r="R35" t="n">
-        <v>41.8994860161185</v>
+        <v>41.89948601611847</v>
       </c>
       <c r="S35" t="n">
-        <v>8.777943972251132</v>
+        <v>8.777943972251103</v>
       </c>
       <c r="T35" t="n">
-        <v>13.60549357478748</v>
+        <v>13.60549357478745</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.39598081391979</v>
+        <v>39.39598081391978</v>
       </c>
       <c r="L36" t="n">
         <v>119.9288613386043</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>116.1637257083991</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>2.213310247224505</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>118.3770359556235</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37543,34 +37543,34 @@
         <v>160.2672697472271</v>
       </c>
       <c r="K38" t="n">
-        <v>230.8357348778178</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>49.10912031175921</v>
+        <v>202.7633805151054</v>
       </c>
       <c r="M38" t="n">
-        <v>83.81099470625607</v>
+        <v>319.8292111003742</v>
       </c>
       <c r="N38" t="n">
-        <v>223.4868408348416</v>
+        <v>314.2738090841011</v>
       </c>
       <c r="O38" t="n">
-        <v>272.630572950584</v>
+        <v>36.61235655646581</v>
       </c>
       <c r="P38" t="n">
-        <v>222.6725079659277</v>
+        <v>222.6725079659276</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.6178508378474</v>
+        <v>147.6178508378472</v>
       </c>
       <c r="R38" t="n">
-        <v>41.89948601611856</v>
+        <v>41.89948601611847</v>
       </c>
       <c r="S38" t="n">
-        <v>8.777943972251188</v>
+        <v>8.777943972251103</v>
       </c>
       <c r="T38" t="n">
-        <v>13.60549357478754</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.39598081391979</v>
+        <v>39.39598081391978</v>
       </c>
       <c r="L39" t="n">
         <v>119.9288613386043</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>118.3770359556236</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37719,10 +37719,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>85.54385488796332</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>32.83318106766006</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>160.2672697472271</v>
+        <v>160.2672697472272</v>
       </c>
       <c r="K41" t="n">
-        <v>230.8357348778178</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>194.3403684566186</v>
+        <v>49.10912031175921</v>
       </c>
       <c r="M41" t="n">
-        <v>83.81099470625607</v>
+        <v>223.8597613348135</v>
       </c>
       <c r="N41" t="n">
-        <v>314.2738090841011</v>
+        <v>314.2738090841012</v>
       </c>
       <c r="O41" t="n">
-        <v>36.61235655646583</v>
+        <v>272.630572950584</v>
       </c>
       <c r="P41" t="n">
         <v>222.6725079659277</v>
       </c>
       <c r="Q41" t="n">
-        <v>147.6178508378473</v>
+        <v>147.6178508378474</v>
       </c>
       <c r="R41" t="n">
-        <v>41.8994860161185</v>
+        <v>41.89948601611859</v>
       </c>
       <c r="S41" t="n">
-        <v>8.777943972251132</v>
+        <v>8.777943972251217</v>
       </c>
       <c r="T41" t="n">
-        <v>13.60549357478748</v>
+        <v>13.60549357478757</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.39598081391979</v>
+        <v>39.39598081391978</v>
       </c>
       <c r="L42" t="n">
         <v>119.9288613386043</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>85.54385488796319</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>118.3770359556235</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>32.83318106766009</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>64.29781998166801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>230.8357348778178</v>
       </c>
       <c r="L44" t="n">
         <v>49.10912031175921</v>
@@ -38026,25 +38026,25 @@
         <v>319.8292111003742</v>
       </c>
       <c r="N44" t="n">
-        <v>314.2738090841011</v>
+        <v>308.959238600585</v>
       </c>
       <c r="O44" t="n">
-        <v>272.6305729505839</v>
+        <v>272.630572950584</v>
       </c>
       <c r="P44" t="n">
         <v>222.6725079659277</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.6178508378473</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>41.8994860161185</v>
+        <v>41.89948601611853</v>
       </c>
       <c r="S44" t="n">
-        <v>8.777943972251132</v>
+        <v>8.77794397225116</v>
       </c>
       <c r="T44" t="n">
-        <v>13.60549357478748</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.39598081391979</v>
+        <v>39.39598081391978</v>
       </c>
       <c r="L45" t="n">
         <v>119.9288613386043</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>9.119676974337366</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>109.2573589812862</v>
+        <v>73.26392255279893</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>32.83318106766003</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>12.27993233516448</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
